--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_10_33.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_10_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1246205.76974965</v>
+        <v>1245596.009692596</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17657175.71523437</v>
+        <v>17657175.71523435</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>230361.9932825534</v>
+        <v>230361.9932825533</v>
       </c>
     </row>
     <row r="9">
@@ -664,13 +664,13 @@
         <v>424.2958575201043</v>
       </c>
       <c r="D2" t="n">
-        <v>424.2958575201043</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E2" t="n">
         <v>424.2958575201043</v>
       </c>
       <c r="F2" t="n">
-        <v>331.3093937516153</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -718,13 +718,13 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>300.4658089995355</v>
       </c>
       <c r="W2" t="n">
         <v>0.8069000430770075</v>
       </c>
       <c r="X2" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
         <v>4.203262463343094</v>
@@ -816,13 +816,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
         <v>168.0604237117701</v>
@@ -831,7 +831,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
         <v>138.5031525665292</v>
@@ -864,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>187.1998193424205</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>182.5865596210317</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="5">
@@ -895,19 +895,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>422.0365747800587</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C5" t="n">
-        <v>320.0331481255878</v>
+        <v>241.9463114416385</v>
       </c>
       <c r="D5" t="n">
         <v>31.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>29.43699739328775</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="F5" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -961,7 +961,7 @@
         <v>0.8069000430770075</v>
       </c>
       <c r="X5" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y5" t="n">
         <v>404.2032624633431</v>
@@ -986,7 +986,7 @@
         <v>93.17921052631581</v>
       </c>
       <c r="F6" t="n">
-        <v>82.55</v>
+        <v>82.55000000000001</v>
       </c>
       <c r="G6" t="n">
         <v>84.53123883647795</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>124.0653503485852</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1062,10 +1062,10 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>15.87365951361935</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
         <v>163.9353622244306</v>
@@ -1101,16 +1101,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>284.0859530482738</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="8">
@@ -1132,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>225.493319739234</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
-        <v>33.76104808841092</v>
+        <v>361.0423675600758</v>
       </c>
       <c r="D8" t="n">
         <v>31.5506869772999</v>
@@ -1144,7 +1144,7 @@
         <v>29.43699739328775</v>
       </c>
       <c r="F8" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1192,16 +1192,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X8" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="9">
@@ -1296,19 +1296,19 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
-        <v>95.87565259935641</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1338,28 +1338,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>132.6093908597478</v>
       </c>
       <c r="U10" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>79.65301062268223</v>
+        <v>79.6530106226819</v>
       </c>
       <c r="T11" t="n">
-        <v>217.2590655368476</v>
+        <v>217.259065536848</v>
       </c>
       <c r="U11" t="n">
         <v>256.6189776240556</v>
@@ -1466,7 +1466,7 @@
         <v>84.45698745081532</v>
       </c>
       <c r="H12" t="n">
-        <v>40.6011835951553</v>
+        <v>40.60118359515529</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1578,10 +1578,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>78.87258048141338</v>
+        <v>156.56410959728</v>
       </c>
       <c r="T13" t="n">
-        <v>243.1546752508501</v>
+        <v>165.4631461349833</v>
       </c>
       <c r="U13" t="n">
         <v>275.645275292109</v>
@@ -1618,7 +1618,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>423.5887552948847</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
         <v>397.2450776617479</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>79.6530106226819</v>
+        <v>79.65301062268134</v>
       </c>
       <c r="T14" t="n">
         <v>217.2590655368476</v>
       </c>
       <c r="U14" t="n">
-        <v>256.6189776240556</v>
+        <v>256.6189776240555</v>
       </c>
       <c r="V14" t="n">
         <v>358.9907805655117</v>
@@ -1703,7 +1703,7 @@
         <v>84.45698745081532</v>
       </c>
       <c r="H15" t="n">
-        <v>40.6011835951553</v>
+        <v>40.60118359515529</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1767,7 +1767,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
         <v>164.2192128704925</v>
@@ -1776,7 +1776,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
-        <v>174.9399834978613</v>
+        <v>167.9112375335074</v>
       </c>
       <c r="G16" t="n">
         <v>163.8731123569568</v>
@@ -1785,7 +1785,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>74.73990260883706</v>
+        <v>85.90132644576697</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>18.4046626769032</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>156.56410959728</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>243.1546752508501</v>
@@ -1897,10 +1897,10 @@
         <v>79.6530106226819</v>
       </c>
       <c r="T17" t="n">
-        <v>217.2590655368476</v>
+        <v>217.259065536848</v>
       </c>
       <c r="U17" t="n">
-        <v>256.6189776240556</v>
+        <v>256.6189776240555</v>
       </c>
       <c r="V17" t="n">
         <v>358.9907805655117</v>
@@ -1940,7 +1940,7 @@
         <v>84.45698745081532</v>
       </c>
       <c r="H18" t="n">
-        <v>40.6011835951553</v>
+        <v>40.60118359515529</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2010,7 +2010,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E19" t="n">
-        <v>168.0604237117701</v>
+        <v>108.9833095392851</v>
       </c>
       <c r="F19" t="n">
         <v>174.9399834978613</v>
@@ -2019,7 +2019,7 @@
         <v>163.8731123569568</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>137.9496946538981</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>156.56410959728</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>243.1546752508501</v>
@@ -2061,7 +2061,7 @@
         <v>275.645275292109</v>
       </c>
       <c r="V19" t="n">
-        <v>206.3944239324069</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W19" t="n">
         <v>269.3061403695714</v>
@@ -2137,10 +2137,10 @@
         <v>217.2590655368476</v>
       </c>
       <c r="U20" t="n">
-        <v>256.6189776240556</v>
+        <v>256.6189776240564</v>
       </c>
       <c r="V20" t="n">
-        <v>358.9907805655118</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W20" t="n">
         <v>400.806900043077</v>
@@ -2177,7 +2177,7 @@
         <v>84.45698745081532</v>
       </c>
       <c r="H21" t="n">
-        <v>40.6011835951553</v>
+        <v>40.60118359515529</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2253,10 +2253,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>86.18158324108965</v>
+        <v>104.7959981844717</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>137.9496946538981</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>156.56410959728</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>243.1546752508501</v>
@@ -2371,10 +2371,10 @@
         <v>79.6530106226819</v>
       </c>
       <c r="T23" t="n">
-        <v>217.259065536848</v>
+        <v>217.2590655368476</v>
       </c>
       <c r="U23" t="n">
-        <v>256.6189776240556</v>
+        <v>256.6189776240564</v>
       </c>
       <c r="V23" t="n">
         <v>358.9907805655117</v>
@@ -2414,7 +2414,7 @@
         <v>84.45698745081532</v>
       </c>
       <c r="H24" t="n">
-        <v>40.6011835951553</v>
+        <v>40.60118359515529</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C25" t="n">
         <v>170.8360944016073</v>
@@ -2490,10 +2490,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
-        <v>163.8731123569568</v>
+        <v>86.18158324108965</v>
       </c>
       <c r="H25" t="n">
-        <v>137.9496946538981</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2532,7 +2532,7 @@
         <v>243.1546752508501</v>
       </c>
       <c r="U25" t="n">
-        <v>249.9044840541412</v>
+        <v>275.645275292109</v>
       </c>
       <c r="V25" t="n">
         <v>284.0859530482738</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>79.65301062268223</v>
+        <v>79.6530106226819</v>
       </c>
       <c r="T26" t="n">
         <v>217.2590655368476</v>
@@ -2651,7 +2651,7 @@
         <v>84.45698745081532</v>
       </c>
       <c r="H27" t="n">
-        <v>40.6011835951553</v>
+        <v>40.60118359515529</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2727,13 +2727,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
-        <v>163.8731123569568</v>
+        <v>86.18158324108967</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>85.90132644576698</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,10 +2763,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>156.56410959728</v>
       </c>
       <c r="T28" t="n">
-        <v>236.1259292864964</v>
+        <v>243.1546752508501</v>
       </c>
       <c r="U28" t="n">
         <v>275.645275292109</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>79.6530106226819</v>
+        <v>79.65301062268223</v>
       </c>
       <c r="T29" t="n">
         <v>217.2590655368476</v>
@@ -2854,7 +2854,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W29" t="n">
-        <v>400.8069000430772</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X29" t="n">
         <v>414.9510387864824</v>
@@ -2888,7 +2888,7 @@
         <v>84.45698745081532</v>
       </c>
       <c r="H30" t="n">
-        <v>40.6011835951553</v>
+        <v>40.60118359515529</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2967,10 +2967,10 @@
         <v>163.8731123569568</v>
       </c>
       <c r="H31" t="n">
-        <v>137.9496946538981</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>85.90132644576698</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>18.4046626769032</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>156.56410959728</v>
+        <v>78.87258048141338</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>243.1546752508501</v>
       </c>
       <c r="U31" t="n">
         <v>275.645275292109</v>
@@ -3015,7 +3015,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X31" t="n">
-        <v>166.1452994783363</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y31" t="n">
         <v>225.1454739790328</v>
@@ -3085,7 +3085,7 @@
         <v>217.2590655368476</v>
       </c>
       <c r="U32" t="n">
-        <v>256.6189776240556</v>
+        <v>256.6189776240555</v>
       </c>
       <c r="V32" t="n">
         <v>358.9907805655117</v>
@@ -3125,7 +3125,7 @@
         <v>84.45698745081532</v>
       </c>
       <c r="H33" t="n">
-        <v>40.6011835951553</v>
+        <v>40.60118359515529</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3362,7 +3362,7 @@
         <v>84.45698745081532</v>
       </c>
       <c r="H36" t="n">
-        <v>40.6011835951553</v>
+        <v>40.60118359515529</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3441,7 +3441,7 @@
         <v>163.8731123569568</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>137.9496946538981</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3474,10 +3474,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>156.56410959728</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>165.4631461349833</v>
+        <v>184.0775610783654</v>
       </c>
       <c r="U37" t="n">
         <v>275.645275292109</v>
@@ -3553,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>79.65301062268134</v>
+        <v>79.6530106226819</v>
       </c>
       <c r="T38" t="n">
         <v>217.2590655368476</v>
       </c>
       <c r="U38" t="n">
-        <v>256.6189776240573</v>
+        <v>256.6189776240556</v>
       </c>
       <c r="V38" t="n">
         <v>358.9907805655117</v>
@@ -3599,7 +3599,7 @@
         <v>84.45698745081532</v>
       </c>
       <c r="H39" t="n">
-        <v>40.6011835951553</v>
+        <v>40.60118359515529</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3757,7 +3757,7 @@
         <v>397.2450776617479</v>
       </c>
       <c r="H41" t="n">
-        <v>284.8176194334636</v>
+        <v>284.8176194334632</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>79.6530106226819</v>
+        <v>79.65301062268223</v>
       </c>
       <c r="T41" t="n">
         <v>217.2590655368476</v>
@@ -3836,7 +3836,7 @@
         <v>84.45698745081532</v>
       </c>
       <c r="H42" t="n">
-        <v>40.6011835951553</v>
+        <v>40.60118359515529</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3900,7 +3900,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C43" t="n">
-        <v>93.14456528574027</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
         <v>164.2192128704925</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>156.56410959728</v>
+        <v>78.87258048141338</v>
       </c>
       <c r="T43" t="n">
         <v>243.1546752508501</v>
@@ -4027,13 +4027,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>79.65301062268134</v>
+        <v>79.65301062268223</v>
       </c>
       <c r="T44" t="n">
         <v>217.2590655368476</v>
       </c>
       <c r="U44" t="n">
-        <v>256.6189776240573</v>
+        <v>256.6189776240556</v>
       </c>
       <c r="V44" t="n">
         <v>358.9907805655117</v>
@@ -4073,7 +4073,7 @@
         <v>84.45698745081532</v>
       </c>
       <c r="H45" t="n">
-        <v>40.6011835951553</v>
+        <v>40.60118359515529</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4143,16 +4143,16 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
-        <v>168.0604237117701</v>
+        <v>116.2923122989616</v>
       </c>
       <c r="F46" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>86.18158324108965</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>137.9496946538981</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4306,16 +4306,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1654.761434047123</v>
+        <v>947.2202128354713</v>
       </c>
       <c r="C2" t="n">
-        <v>1226.179759784392</v>
+        <v>518.6385385727397</v>
       </c>
       <c r="D2" t="n">
-        <v>797.5980855216599</v>
+        <v>486.7691577875882</v>
       </c>
       <c r="E2" t="n">
-        <v>369.0164112589282</v>
+        <v>58.18748352485655</v>
       </c>
       <c r="F2" t="n">
         <v>34.36045797446834</v>
@@ -4330,19 +4330,19 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J2" t="n">
-        <v>33.94366860160834</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="K2" t="n">
-        <v>33.94366860160834</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="L2" t="n">
-        <v>33.94366860160834</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="M2" t="n">
-        <v>267.8706684926505</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="N2" t="n">
-        <v>267.8706684926505</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="O2" t="n">
         <v>687.9235674375537</v>
@@ -4366,16 +4366,16 @@
         <v>1697.183430080417</v>
       </c>
       <c r="V2" t="n">
-        <v>1697.183430080417</v>
+        <v>1393.682612909169</v>
       </c>
       <c r="W2" t="n">
-        <v>1696.368379531855</v>
+        <v>1392.867562360607</v>
       </c>
       <c r="X2" t="n">
-        <v>1681.26632015157</v>
+        <v>973.7250989399176</v>
       </c>
       <c r="Y2" t="n">
-        <v>1677.020600491627</v>
+        <v>969.4793792799751</v>
       </c>
     </row>
     <row r="3">
@@ -4388,7 +4388,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C3" t="n">
-        <v>433.6589524295434</v>
+        <v>433.6589524295435</v>
       </c>
       <c r="D3" t="n">
         <v>338.5686635760967</v>
@@ -4397,10 +4397,10 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F3" t="n">
-        <v>161.064410519212</v>
+        <v>161.0644105192121</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539587</v>
+        <v>75.67932078539593</v>
       </c>
       <c r="H3" t="n">
         <v>33.94366860160834</v>
@@ -4412,19 +4412,19 @@
         <v>384.5656667282782</v>
       </c>
       <c r="K3" t="n">
-        <v>804.6185656731816</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="L3" t="n">
-        <v>804.6185656731816</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="M3" t="n">
-        <v>804.6185656731816</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="N3" t="n">
-        <v>804.6185656731816</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="O3" t="n">
-        <v>804.6185656731816</v>
+        <v>739.9048540962709</v>
       </c>
       <c r="P3" t="n">
         <v>1159.957753041174</v>
@@ -4464,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>516.1655581772716</v>
+        <v>847.6348259499213</v>
       </c>
       <c r="C4" t="n">
-        <v>343.6038466604966</v>
+        <v>675.0731144331462</v>
       </c>
       <c r="D4" t="n">
-        <v>343.6038466604966</v>
+        <v>509.1951216346689</v>
       </c>
       <c r="E4" t="n">
-        <v>173.8458429112338</v>
+        <v>339.4371178854062</v>
       </c>
       <c r="F4" t="n">
-        <v>173.8458429112338</v>
+        <v>339.4371178854062</v>
       </c>
       <c r="G4" t="n">
         <v>173.8458429112338</v>
@@ -4494,46 +4494,46 @@
         <v>395.2818083374338</v>
       </c>
       <c r="L4" t="n">
-        <v>509.5707382202689</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="M4" t="n">
-        <v>929.6236371651722</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="N4" t="n">
-        <v>1349.676536110076</v>
+        <v>761.8145120199619</v>
       </c>
       <c r="O4" t="n">
-        <v>1349.676536110076</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="P4" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="Q4" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="R4" t="n">
-        <v>1675.765608785789</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S4" t="n">
-        <v>1516.524240083786</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T4" t="n">
-        <v>1270.644793662241</v>
+        <v>1451.303983658873</v>
       </c>
       <c r="U4" t="n">
-        <v>992.2117929153466</v>
+        <v>1451.303983658873</v>
       </c>
       <c r="V4" t="n">
-        <v>705.2562847857771</v>
+        <v>1451.303983658873</v>
       </c>
       <c r="W4" t="n">
-        <v>516.1655581772716</v>
+        <v>1451.303983658873</v>
       </c>
       <c r="X4" t="n">
-        <v>516.1655581772716</v>
+        <v>1266.8731153548</v>
       </c>
       <c r="Y4" t="n">
-        <v>516.1655581772716</v>
+        <v>1039.453444668908</v>
       </c>
     </row>
     <row r="5">
@@ -4543,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>442.6402219259112</v>
+        <v>1167.069156190556</v>
       </c>
       <c r="C5" t="n">
-        <v>119.3744157384487</v>
+        <v>922.6789426131436</v>
       </c>
       <c r="D5" t="n">
-        <v>87.50503495329731</v>
+        <v>890.8095618279922</v>
       </c>
       <c r="E5" t="n">
-        <v>57.77069415199655</v>
+        <v>462.2278875652606</v>
       </c>
       <c r="F5" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="G5" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="H5" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="I5" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J5" t="n">
-        <v>33.94366860160834</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="K5" t="n">
-        <v>33.94366860160834</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="L5" t="n">
-        <v>33.94366860160834</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="M5" t="n">
         <v>453.9965675465116</v>
@@ -4594,25 +4594,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="T5" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="U5" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="V5" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="W5" t="n">
-        <v>1696.368379531855</v>
+        <v>1612.716505715692</v>
       </c>
       <c r="X5" t="n">
-        <v>1277.225916111166</v>
+        <v>1597.614446335406</v>
       </c>
       <c r="Y5" t="n">
-        <v>868.939792410819</v>
+        <v>1189.32832263506</v>
       </c>
     </row>
     <row r="6">
@@ -4625,7 +4625,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295435</v>
+        <v>433.6589524295434</v>
       </c>
       <c r="D6" t="n">
         <v>338.5686635760967</v>
@@ -4634,31 +4634,31 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F6" t="n">
-        <v>161.0644105192121</v>
+        <v>161.064410519212</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539593</v>
+        <v>75.67932078539587</v>
       </c>
       <c r="H6" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="I6" t="n">
-        <v>60.00734176206595</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="J6" t="n">
-        <v>384.5656667282782</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K6" t="n">
-        <v>739.9048540962709</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L6" t="n">
-        <v>739.9048540962709</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="M6" t="n">
-        <v>739.9048540962709</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="N6" t="n">
-        <v>739.9048540962709</v>
+        <v>319.8519551513677</v>
       </c>
       <c r="O6" t="n">
         <v>739.9048540962709</v>
@@ -4701,16 +4701,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>613.8890703687</v>
+        <v>604.8041211489747</v>
       </c>
       <c r="C7" t="n">
-        <v>613.8890703687</v>
+        <v>604.8041211489747</v>
       </c>
       <c r="D7" t="n">
-        <v>613.8890703687</v>
+        <v>604.8041211489747</v>
       </c>
       <c r="E7" t="n">
-        <v>444.1310666194373</v>
+        <v>604.8041211489747</v>
       </c>
       <c r="F7" t="n">
         <v>428.0970671107308</v>
@@ -4731,13 +4731,13 @@
         <v>395.2818083374338</v>
       </c>
       <c r="L7" t="n">
-        <v>395.2818083374338</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="M7" t="n">
-        <v>815.3347072823371</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="N7" t="n">
-        <v>815.3347072823371</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="O7" t="n">
         <v>1181.483761245743</v>
@@ -4749,28 +4749,28 @@
         <v>1697.183430080417</v>
       </c>
       <c r="R7" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S7" t="n">
-        <v>1697.183430080417</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="T7" t="n">
-        <v>1451.303983658873</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="U7" t="n">
-        <v>1172.870982911978</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="V7" t="n">
-        <v>885.9154747824084</v>
+        <v>1229.568731954216</v>
       </c>
       <c r="W7" t="n">
-        <v>613.8890703687</v>
+        <v>957.542327540508</v>
       </c>
       <c r="X7" t="n">
-        <v>613.8890703687</v>
+        <v>957.542327540508</v>
       </c>
       <c r="Y7" t="n">
-        <v>613.8890703687</v>
+        <v>730.1226568546163</v>
       </c>
     </row>
     <row r="8">
@@ -4780,16 +4780,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>153.4764845146214</v>
+        <v>888.1040799405456</v>
       </c>
       <c r="C8" t="n">
-        <v>119.3744157384487</v>
+        <v>523.4148197788528</v>
       </c>
       <c r="D8" t="n">
-        <v>87.50503495329731</v>
+        <v>491.5454389937014</v>
       </c>
       <c r="E8" t="n">
-        <v>57.77069415199655</v>
+        <v>461.8110981924006</v>
       </c>
       <c r="F8" t="n">
         <v>33.94366860160834</v>
@@ -4804,10 +4804,10 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J8" t="n">
-        <v>453.9965675465116</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K8" t="n">
-        <v>453.9965675465116</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L8" t="n">
         <v>453.9965675465116</v>
@@ -4816,40 +4816,40 @@
         <v>874.0494664914149</v>
       </c>
       <c r="N8" t="n">
-        <v>874.0494664914149</v>
+        <v>1294.102365436318</v>
       </c>
       <c r="O8" t="n">
-        <v>874.0494664914149</v>
+        <v>1294.102365436318</v>
       </c>
       <c r="P8" t="n">
-        <v>1107.976466382457</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Q8" t="n">
-        <v>1528.02936532736</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="R8" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="S8" t="n">
-        <v>1613.531556264254</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T8" t="n">
-        <v>1613.531556264254</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="U8" t="n">
-        <v>1613.531556264254</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="V8" t="n">
-        <v>1613.531556264254</v>
+        <v>1334.566480014244</v>
       </c>
       <c r="W8" t="n">
-        <v>1208.676101675288</v>
+        <v>1333.751429465681</v>
       </c>
       <c r="X8" t="n">
-        <v>789.5336382545983</v>
+        <v>1318.649370085396</v>
       </c>
       <c r="Y8" t="n">
-        <v>381.2475145542517</v>
+        <v>1314.403650425453</v>
       </c>
     </row>
     <row r="9">
@@ -4862,7 +4862,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C9" t="n">
-        <v>433.6589524295435</v>
+        <v>433.6589524295434</v>
       </c>
       <c r="D9" t="n">
         <v>338.5686635760967</v>
@@ -4871,10 +4871,10 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F9" t="n">
-        <v>161.0644105192121</v>
+        <v>161.064410519212</v>
       </c>
       <c r="G9" t="n">
-        <v>75.67932078539593</v>
+        <v>75.67932078539587</v>
       </c>
       <c r="H9" t="n">
         <v>33.94366860160834</v>
@@ -4886,19 +4886,19 @@
         <v>384.5656667282782</v>
       </c>
       <c r="K9" t="n">
-        <v>384.5656667282782</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="L9" t="n">
-        <v>384.5656667282782</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M9" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N9" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O9" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P9" t="n">
         <v>1159.957753041174</v>
@@ -4938,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>473.1074774023496</v>
+        <v>858.7506050139928</v>
       </c>
       <c r="C10" t="n">
-        <v>300.5457658855746</v>
+        <v>686.1888934972177</v>
       </c>
       <c r="D10" t="n">
-        <v>300.5457658855746</v>
+        <v>520.3109006987404</v>
       </c>
       <c r="E10" t="n">
-        <v>130.7877621363118</v>
+        <v>350.5528969494776</v>
       </c>
       <c r="F10" t="n">
-        <v>33.94366860160834</v>
+        <v>173.8458429112338</v>
       </c>
       <c r="G10" t="n">
-        <v>33.94366860160834</v>
+        <v>173.8458429112338</v>
       </c>
       <c r="H10" t="n">
         <v>33.94366860160834</v>
@@ -4962,13 +4962,13 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J10" t="n">
-        <v>68.4625259617433</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="K10" t="n">
-        <v>343.2209805328789</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="L10" t="n">
-        <v>761.43086230084</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="M10" t="n">
         <v>1181.483761245743</v>
@@ -4986,28 +4986,28 @@
         <v>1697.183430080417</v>
       </c>
       <c r="R10" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S10" t="n">
-        <v>1537.942061378414</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="T10" t="n">
-        <v>1537.942061378414</v>
+        <v>1382.575360427475</v>
       </c>
       <c r="U10" t="n">
-        <v>1259.509060631519</v>
+        <v>1104.14235968058</v>
       </c>
       <c r="V10" t="n">
-        <v>972.5535525019498</v>
+        <v>1104.14235968058</v>
       </c>
       <c r="W10" t="n">
-        <v>700.5271480882413</v>
+        <v>1104.14235968058</v>
       </c>
       <c r="X10" t="n">
-        <v>700.5271480882413</v>
+        <v>858.7506050139928</v>
       </c>
       <c r="Y10" t="n">
-        <v>473.1074774023496</v>
+        <v>858.7506050139928</v>
       </c>
     </row>
     <row r="11">
@@ -5044,19 +5044,19 @@
         <v>553.9456687731839</v>
       </c>
       <c r="K11" t="n">
-        <v>1405.772184659974</v>
+        <v>896.9295124211102</v>
       </c>
       <c r="L11" t="n">
-        <v>1427.452985796848</v>
+        <v>1993.670279810843</v>
       </c>
       <c r="M11" t="n">
-        <v>1451.577054504767</v>
+        <v>3174.842183729313</v>
       </c>
       <c r="N11" t="n">
-        <v>2516.598047122608</v>
+        <v>4325.08758852631</v>
       </c>
       <c r="O11" t="n">
-        <v>3519.925986636534</v>
+        <v>4348.235861469931</v>
       </c>
       <c r="P11" t="n">
         <v>4367.992376873088</v>
@@ -5099,19 +5099,19 @@
         <v>607.5146224619331</v>
       </c>
       <c r="C12" t="n">
-        <v>501.0581612985754</v>
+        <v>501.0581612985753</v>
       </c>
       <c r="D12" t="n">
         <v>405.9678724451286</v>
       </c>
       <c r="E12" t="n">
-        <v>311.8474577720824</v>
+        <v>311.8474577720823</v>
       </c>
       <c r="F12" t="n">
-        <v>228.463619388244</v>
+        <v>228.4636193882439</v>
       </c>
       <c r="G12" t="n">
-        <v>143.1535310540871</v>
+        <v>143.153531054087</v>
       </c>
       <c r="H12" t="n">
         <v>102.1422344933241</v>
@@ -5123,25 +5123,25 @@
         <v>462.2401065289864</v>
       </c>
       <c r="K12" t="n">
-        <v>709.1606082483027</v>
+        <v>474.1101772889937</v>
       </c>
       <c r="L12" t="n">
-        <v>1679.664432053951</v>
+        <v>490.0709522835386</v>
       </c>
       <c r="M12" t="n">
-        <v>1698.289903651464</v>
+        <v>508.6964238810512</v>
       </c>
       <c r="N12" t="n">
-        <v>1717.408336060342</v>
+        <v>527.8148562899295</v>
       </c>
       <c r="O12" t="n">
-        <v>1734.897966625519</v>
+        <v>545.3044868551063</v>
       </c>
       <c r="P12" t="n">
-        <v>1748.934937067141</v>
+        <v>1091.023220340725</v>
       </c>
       <c r="Q12" t="n">
-        <v>1758.318280071711</v>
+        <v>1641.145501977371</v>
       </c>
       <c r="R12" t="n">
         <v>1762.882278270333</v>
@@ -5226,7 +5226,7 @@
         <v>2779.896976828331</v>
       </c>
       <c r="S13" t="n">
-        <v>2700.227703614783</v>
+        <v>2621.751411578553</v>
       </c>
       <c r="T13" t="n">
         <v>2454.616920533116</v>
@@ -5254,19 +5254,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2526.788885856046</v>
+        <v>2526.788885856047</v>
       </c>
       <c r="C14" t="n">
-        <v>2088.646413039469</v>
+        <v>2088.64641303947</v>
       </c>
       <c r="D14" t="n">
-        <v>1652.736628213914</v>
+        <v>1652.736628213915</v>
       </c>
       <c r="E14" t="n">
-        <v>1218.961883372209</v>
+        <v>1218.96188337221</v>
       </c>
       <c r="F14" t="n">
-        <v>791.0944537814162</v>
+        <v>791.0944537814175</v>
       </c>
       <c r="G14" t="n">
         <v>389.8367995776304</v>
@@ -5281,16 +5281,16 @@
         <v>553.9456687731839</v>
       </c>
       <c r="K14" t="n">
-        <v>571.4218927017964</v>
+        <v>1405.772184659975</v>
       </c>
       <c r="L14" t="n">
-        <v>593.1026938386694</v>
+        <v>2502.512952049707</v>
       </c>
       <c r="M14" t="n">
-        <v>1774.27459775714</v>
+        <v>3472.263292332363</v>
       </c>
       <c r="N14" t="n">
-        <v>2924.520002554138</v>
+        <v>3496.777713692914</v>
       </c>
       <c r="O14" t="n">
         <v>3519.925986636534</v>
@@ -5305,7 +5305,7 @@
         <v>5107.111724666206</v>
       </c>
       <c r="S14" t="n">
-        <v>5026.654138178648</v>
+        <v>5026.654138178649</v>
       </c>
       <c r="T14" t="n">
         <v>4807.200536626277</v>
@@ -5314,16 +5314,16 @@
         <v>4547.98944811713</v>
       </c>
       <c r="V14" t="n">
-        <v>4185.372498050956</v>
+        <v>4185.372498050957</v>
       </c>
       <c r="W14" t="n">
-        <v>3780.517043461989</v>
+        <v>3780.51704346199</v>
       </c>
       <c r="X14" t="n">
-        <v>3361.3745800413</v>
+        <v>3361.374580041301</v>
       </c>
       <c r="Y14" t="n">
-        <v>2953.088456340954</v>
+        <v>2953.088456340955</v>
       </c>
     </row>
     <row r="15">
@@ -5336,43 +5336,43 @@
         <v>607.5146224619331</v>
       </c>
       <c r="C15" t="n">
-        <v>501.0581612985754</v>
+        <v>501.0581612985753</v>
       </c>
       <c r="D15" t="n">
         <v>405.9678724451286</v>
       </c>
       <c r="E15" t="n">
-        <v>311.8474577720824</v>
+        <v>311.8474577720823</v>
       </c>
       <c r="F15" t="n">
-        <v>228.463619388244</v>
+        <v>228.4636193882439</v>
       </c>
       <c r="G15" t="n">
-        <v>143.1535310540871</v>
+        <v>143.153531054087</v>
       </c>
       <c r="H15" t="n">
         <v>102.1422344933241</v>
       </c>
       <c r="I15" t="n">
-        <v>104.6731320533116</v>
+        <v>130.7368052137691</v>
       </c>
       <c r="J15" t="n">
-        <v>111.6181084023166</v>
+        <v>462.2401065289864</v>
       </c>
       <c r="K15" t="n">
-        <v>123.4881791623238</v>
+        <v>474.1101772889937</v>
       </c>
       <c r="L15" t="n">
-        <v>139.4489541568687</v>
+        <v>490.0709522835386</v>
       </c>
       <c r="M15" t="n">
-        <v>158.0744257543813</v>
+        <v>508.6964238810512</v>
       </c>
       <c r="N15" t="n">
-        <v>1059.496619333927</v>
+        <v>527.8148562899295</v>
       </c>
       <c r="O15" t="n">
-        <v>1076.986249899104</v>
+        <v>545.3044868551063</v>
       </c>
       <c r="P15" t="n">
         <v>1091.023220340725</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>855.5085325195037</v>
+        <v>1032.24466612979</v>
       </c>
       <c r="C16" t="n">
-        <v>855.5085325195037</v>
+        <v>859.6829546130149</v>
       </c>
       <c r="D16" t="n">
-        <v>689.6305397210264</v>
+        <v>693.8049618145376</v>
       </c>
       <c r="E16" t="n">
-        <v>519.8725359717637</v>
+        <v>524.0469580652748</v>
       </c>
       <c r="F16" t="n">
-        <v>343.1654819335199</v>
+        <v>354.4396474253683</v>
       </c>
       <c r="G16" t="n">
-        <v>177.6370856133616</v>
+        <v>188.9112511052099</v>
       </c>
       <c r="H16" t="n">
-        <v>177.6370856133616</v>
+        <v>188.9112511052099</v>
       </c>
       <c r="I16" t="n">
         <v>102.1422344933241</v>
@@ -5460,28 +5460,28 @@
         <v>2779.896976828331</v>
       </c>
       <c r="R16" t="n">
-        <v>2761.306408467823</v>
+        <v>2779.896976828331</v>
       </c>
       <c r="S16" t="n">
-        <v>2603.160843218045</v>
+        <v>2779.896976828331</v>
       </c>
       <c r="T16" t="n">
-        <v>2357.550060136378</v>
+        <v>2534.286193746665</v>
       </c>
       <c r="U16" t="n">
-        <v>2079.120489134248</v>
+        <v>2255.856622744534</v>
       </c>
       <c r="V16" t="n">
-        <v>1792.164981004679</v>
+        <v>1968.901114614965</v>
       </c>
       <c r="W16" t="n">
-        <v>1520.13857659097</v>
+        <v>1696.874710201256</v>
       </c>
       <c r="X16" t="n">
-        <v>1274.746821924383</v>
+        <v>1451.482955534669</v>
       </c>
       <c r="Y16" t="n">
-        <v>1047.327151238491</v>
+        <v>1224.063284848777</v>
       </c>
     </row>
     <row r="17">
@@ -5515,16 +5515,16 @@
         <v>107.0303764979941</v>
       </c>
       <c r="J17" t="n">
-        <v>118.690981320266</v>
+        <v>553.9456687731839</v>
       </c>
       <c r="K17" t="n">
-        <v>970.5174972070564</v>
+        <v>571.4218927017965</v>
       </c>
       <c r="L17" t="n">
-        <v>2067.258264596789</v>
+        <v>1668.162660091529</v>
       </c>
       <c r="M17" t="n">
-        <v>2091.382333304708</v>
+        <v>1692.286728799448</v>
       </c>
       <c r="N17" t="n">
         <v>2516.598047122608</v>
@@ -5542,7 +5542,7 @@
         <v>5107.111724666206</v>
       </c>
       <c r="S17" t="n">
-        <v>5026.654138178649</v>
+        <v>5026.654138178648</v>
       </c>
       <c r="T17" t="n">
         <v>4807.200536626277</v>
@@ -5551,7 +5551,7 @@
         <v>4547.98944811713</v>
       </c>
       <c r="V17" t="n">
-        <v>4185.372498050957</v>
+        <v>4185.372498050956</v>
       </c>
       <c r="W17" t="n">
         <v>3780.517043461989</v>
@@ -5573,19 +5573,19 @@
         <v>607.5146224619331</v>
       </c>
       <c r="C18" t="n">
-        <v>501.0581612985754</v>
+        <v>501.0581612985753</v>
       </c>
       <c r="D18" t="n">
         <v>405.9678724451286</v>
       </c>
       <c r="E18" t="n">
-        <v>311.8474577720824</v>
+        <v>311.8474577720823</v>
       </c>
       <c r="F18" t="n">
-        <v>228.463619388244</v>
+        <v>228.4636193882439</v>
       </c>
       <c r="G18" t="n">
-        <v>143.1535310540871</v>
+        <v>143.153531054087</v>
       </c>
       <c r="H18" t="n">
         <v>102.1422344933241</v>
@@ -5597,19 +5597,19 @@
         <v>462.2401065289864</v>
       </c>
       <c r="K18" t="n">
-        <v>1005.791940332991</v>
+        <v>474.1101772889937</v>
       </c>
       <c r="L18" t="n">
-        <v>1021.752715327536</v>
+        <v>490.0709522835386</v>
       </c>
       <c r="M18" t="n">
-        <v>1040.378186925048</v>
+        <v>508.6964238810512</v>
       </c>
       <c r="N18" t="n">
-        <v>1059.496619333927</v>
+        <v>527.8148562899295</v>
       </c>
       <c r="O18" t="n">
-        <v>1076.986249899104</v>
+        <v>545.3044868551063</v>
       </c>
       <c r="P18" t="n">
         <v>1091.023220340725</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>952.5753929162413</v>
+        <v>1032.24466612979</v>
       </c>
       <c r="C19" t="n">
-        <v>780.0136813994662</v>
+        <v>859.6829546130149</v>
       </c>
       <c r="D19" t="n">
-        <v>614.1356886009889</v>
+        <v>693.8049618145376</v>
       </c>
       <c r="E19" t="n">
-        <v>444.3776848517263</v>
+        <v>583.7208107647547</v>
       </c>
       <c r="F19" t="n">
-        <v>267.6706308134825</v>
+        <v>407.0137567265109</v>
       </c>
       <c r="G19" t="n">
-        <v>102.1422344933241</v>
+        <v>241.4853604063525</v>
       </c>
       <c r="H19" t="n">
         <v>102.1422344933241</v>
@@ -5700,25 +5700,25 @@
         <v>2779.896976828331</v>
       </c>
       <c r="S19" t="n">
-        <v>2621.751411578553</v>
+        <v>2779.896976828331</v>
       </c>
       <c r="T19" t="n">
-        <v>2376.140628496887</v>
+        <v>2534.286193746665</v>
       </c>
       <c r="U19" t="n">
-        <v>2097.711057494756</v>
+        <v>2255.856622744534</v>
       </c>
       <c r="V19" t="n">
-        <v>1889.231841401416</v>
+        <v>1968.901114614965</v>
       </c>
       <c r="W19" t="n">
-        <v>1617.205436987708</v>
+        <v>1696.874710201256</v>
       </c>
       <c r="X19" t="n">
-        <v>1371.81368232112</v>
+        <v>1451.482955534669</v>
       </c>
       <c r="Y19" t="n">
-        <v>1144.394011635228</v>
+        <v>1224.063284848777</v>
       </c>
     </row>
     <row r="20">
@@ -5755,16 +5755,16 @@
         <v>553.9456687731839</v>
       </c>
       <c r="K20" t="n">
-        <v>1405.772184659974</v>
+        <v>1405.772184659975</v>
       </c>
       <c r="L20" t="n">
-        <v>2502.512952049707</v>
+        <v>1427.452985796848</v>
       </c>
       <c r="M20" t="n">
-        <v>2526.637020757626</v>
+        <v>1451.577054504767</v>
       </c>
       <c r="N20" t="n">
-        <v>2551.151442118177</v>
+        <v>2516.598047122608</v>
       </c>
       <c r="O20" t="n">
         <v>3519.925986636534</v>
@@ -5779,7 +5779,7 @@
         <v>5107.111724666206</v>
       </c>
       <c r="S20" t="n">
-        <v>5026.654138178648</v>
+        <v>5026.654138178649</v>
       </c>
       <c r="T20" t="n">
         <v>4807.200536626277</v>
@@ -5797,7 +5797,7 @@
         <v>3361.3745800413</v>
       </c>
       <c r="Y20" t="n">
-        <v>2953.088456340953</v>
+        <v>2953.088456340954</v>
       </c>
     </row>
     <row r="21">
@@ -5810,49 +5810,49 @@
         <v>607.5146224619331</v>
       </c>
       <c r="C21" t="n">
-        <v>501.0581612985754</v>
+        <v>501.0581612985753</v>
       </c>
       <c r="D21" t="n">
         <v>405.9678724451286</v>
       </c>
       <c r="E21" t="n">
-        <v>311.8474577720824</v>
+        <v>311.8474577720823</v>
       </c>
       <c r="F21" t="n">
-        <v>228.463619388244</v>
+        <v>228.4636193882439</v>
       </c>
       <c r="G21" t="n">
-        <v>143.1535310540871</v>
+        <v>143.153531054087</v>
       </c>
       <c r="H21" t="n">
         <v>102.1422344933241</v>
       </c>
       <c r="I21" t="n">
-        <v>104.6731320533116</v>
+        <v>130.7368052137691</v>
       </c>
       <c r="J21" t="n">
-        <v>111.6181084023166</v>
+        <v>462.2401065289864</v>
       </c>
       <c r="K21" t="n">
-        <v>123.4881791623238</v>
+        <v>474.1101772889937</v>
       </c>
       <c r="L21" t="n">
-        <v>665.8628222356496</v>
+        <v>490.0709522835386</v>
       </c>
       <c r="M21" t="n">
-        <v>684.4882938331621</v>
+        <v>508.6964238810512</v>
       </c>
       <c r="N21" t="n">
-        <v>703.6067262420404</v>
+        <v>527.8148562899295</v>
       </c>
       <c r="O21" t="n">
-        <v>1734.897966625519</v>
+        <v>545.3044868551063</v>
       </c>
       <c r="P21" t="n">
-        <v>1748.934937067141</v>
+        <v>1091.023220340725</v>
       </c>
       <c r="Q21" t="n">
-        <v>1758.318280071711</v>
+        <v>1641.145501977371</v>
       </c>
       <c r="R21" t="n">
         <v>1762.882278270333</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>874.099100880012</v>
+        <v>1032.24466612979</v>
       </c>
       <c r="C22" t="n">
-        <v>701.5373893632369</v>
+        <v>859.6829546130149</v>
       </c>
       <c r="D22" t="n">
-        <v>535.6593965647596</v>
+        <v>693.8049618145376</v>
       </c>
       <c r="E22" t="n">
-        <v>365.9013928154969</v>
+        <v>524.0469580652748</v>
       </c>
       <c r="F22" t="n">
-        <v>189.1943387772531</v>
+        <v>347.339904027031</v>
       </c>
       <c r="G22" t="n">
-        <v>102.1422344933241</v>
+        <v>241.4853604063525</v>
       </c>
       <c r="H22" t="n">
         <v>102.1422344933241</v>
@@ -5937,25 +5937,25 @@
         <v>2779.896976828331</v>
       </c>
       <c r="S22" t="n">
-        <v>2621.751411578553</v>
+        <v>2779.896976828331</v>
       </c>
       <c r="T22" t="n">
-        <v>2376.140628496887</v>
+        <v>2534.286193746665</v>
       </c>
       <c r="U22" t="n">
-        <v>2097.711057494756</v>
+        <v>2255.856622744534</v>
       </c>
       <c r="V22" t="n">
-        <v>1810.755549365187</v>
+        <v>1968.901114614965</v>
       </c>
       <c r="W22" t="n">
-        <v>1538.729144951478</v>
+        <v>1696.874710201256</v>
       </c>
       <c r="X22" t="n">
-        <v>1293.337390284891</v>
+        <v>1451.482955534669</v>
       </c>
       <c r="Y22" t="n">
-        <v>1065.917719598999</v>
+        <v>1224.063284848777</v>
       </c>
     </row>
     <row r="23">
@@ -5989,34 +5989,34 @@
         <v>107.0303764979941</v>
       </c>
       <c r="J23" t="n">
-        <v>118.690981320266</v>
+        <v>553.9456687731839</v>
       </c>
       <c r="K23" t="n">
-        <v>414.6418709810147</v>
+        <v>1405.772184659975</v>
       </c>
       <c r="L23" t="n">
-        <v>1511.382638370747</v>
+        <v>1427.452985796848</v>
       </c>
       <c r="M23" t="n">
-        <v>1535.506707078667</v>
+        <v>1451.577054504767</v>
       </c>
       <c r="N23" t="n">
-        <v>2685.752111875664</v>
+        <v>2516.598047122608</v>
       </c>
       <c r="O23" t="n">
-        <v>3689.080051389591</v>
+        <v>3519.925986636534</v>
       </c>
       <c r="P23" t="n">
-        <v>4537.146441626144</v>
+        <v>4367.992376873088</v>
       </c>
       <c r="Q23" t="n">
-        <v>5098.481547872238</v>
+        <v>4929.327483119182</v>
       </c>
       <c r="R23" t="n">
         <v>5107.111724666206</v>
       </c>
       <c r="S23" t="n">
-        <v>5026.654138178648</v>
+        <v>5026.654138178649</v>
       </c>
       <c r="T23" t="n">
         <v>4807.200536626277</v>
@@ -6047,19 +6047,19 @@
         <v>607.5146224619331</v>
       </c>
       <c r="C24" t="n">
-        <v>501.0581612985754</v>
+        <v>501.0581612985753</v>
       </c>
       <c r="D24" t="n">
         <v>405.9678724451286</v>
       </c>
       <c r="E24" t="n">
-        <v>311.8474577720824</v>
+        <v>311.8474577720823</v>
       </c>
       <c r="F24" t="n">
-        <v>228.463619388244</v>
+        <v>228.4636193882439</v>
       </c>
       <c r="G24" t="n">
-        <v>143.1535310540871</v>
+        <v>143.153531054087</v>
       </c>
       <c r="H24" t="n">
         <v>102.1422344933241</v>
@@ -6071,19 +6071,19 @@
         <v>462.2401065289864</v>
       </c>
       <c r="K24" t="n">
-        <v>1005.791940332991</v>
+        <v>474.1101772889937</v>
       </c>
       <c r="L24" t="n">
-        <v>1021.752715327536</v>
+        <v>490.0709522835386</v>
       </c>
       <c r="M24" t="n">
-        <v>1040.378186925048</v>
+        <v>508.6964238810512</v>
       </c>
       <c r="N24" t="n">
-        <v>1059.496619333927</v>
+        <v>527.8148562899295</v>
       </c>
       <c r="O24" t="n">
-        <v>1076.986249899104</v>
+        <v>545.3044868551063</v>
       </c>
       <c r="P24" t="n">
         <v>1091.023220340725</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1091.91851882927</v>
+        <v>874.099100880012</v>
       </c>
       <c r="C25" t="n">
-        <v>919.3568073124947</v>
+        <v>701.5373893632369</v>
       </c>
       <c r="D25" t="n">
-        <v>753.4788145140174</v>
+        <v>535.6593965647596</v>
       </c>
       <c r="E25" t="n">
-        <v>583.7208107647547</v>
+        <v>365.9013928154969</v>
       </c>
       <c r="F25" t="n">
-        <v>407.0137567265109</v>
+        <v>189.1943387772531</v>
       </c>
       <c r="G25" t="n">
-        <v>241.4853604063525</v>
+        <v>102.1422344933241</v>
       </c>
       <c r="H25" t="n">
         <v>102.1422344933241</v>
@@ -6180,19 +6180,19 @@
         <v>2376.140628496887</v>
       </c>
       <c r="U25" t="n">
-        <v>2123.711856725027</v>
+        <v>2097.711057494756</v>
       </c>
       <c r="V25" t="n">
-        <v>1836.756348595457</v>
+        <v>1810.755549365187</v>
       </c>
       <c r="W25" t="n">
-        <v>1564.729944181749</v>
+        <v>1538.729144951478</v>
       </c>
       <c r="X25" t="n">
-        <v>1319.338189515162</v>
+        <v>1293.337390284891</v>
       </c>
       <c r="Y25" t="n">
-        <v>1091.91851882927</v>
+        <v>1065.917719598999</v>
       </c>
     </row>
     <row r="26">
@@ -6205,7 +6205,7 @@
         <v>2526.788885856045</v>
       </c>
       <c r="C26" t="n">
-        <v>2088.646413039469</v>
+        <v>2088.646413039468</v>
       </c>
       <c r="D26" t="n">
         <v>1652.736628213913</v>
@@ -6214,7 +6214,7 @@
         <v>1218.961883372208</v>
       </c>
       <c r="F26" t="n">
-        <v>791.0944537814162</v>
+        <v>791.0944537814157</v>
       </c>
       <c r="G26" t="n">
         <v>389.8367995776304</v>
@@ -6229,49 +6229,49 @@
         <v>553.9456687731839</v>
       </c>
       <c r="K26" t="n">
-        <v>1405.772184659974</v>
+        <v>1405.772184659975</v>
       </c>
       <c r="L26" t="n">
-        <v>2467.959557054138</v>
+        <v>2502.512952049707</v>
       </c>
       <c r="M26" t="n">
-        <v>2492.083625762057</v>
+        <v>3038.582411720651</v>
       </c>
       <c r="N26" t="n">
-        <v>2516.598047122608</v>
+        <v>3063.096833081202</v>
       </c>
       <c r="O26" t="n">
-        <v>3519.925986636534</v>
+        <v>4066.424772595129</v>
       </c>
       <c r="P26" t="n">
-        <v>4367.992376873088</v>
+        <v>4914.491162831682</v>
       </c>
       <c r="Q26" t="n">
-        <v>4929.327483119182</v>
+        <v>4929.327483119181</v>
       </c>
       <c r="R26" t="n">
-        <v>5107.111724666206</v>
+        <v>5107.111724666205</v>
       </c>
       <c r="S26" t="n">
-        <v>5026.654138178648</v>
+        <v>5026.654138178647</v>
       </c>
       <c r="T26" t="n">
         <v>4807.200536626277</v>
       </c>
       <c r="U26" t="n">
-        <v>4547.98944811713</v>
+        <v>4547.989448117129</v>
       </c>
       <c r="V26" t="n">
-        <v>4185.372498050956</v>
+        <v>4185.372498050955</v>
       </c>
       <c r="W26" t="n">
         <v>3780.517043461989</v>
       </c>
       <c r="X26" t="n">
-        <v>3361.3745800413</v>
+        <v>3361.374580041299</v>
       </c>
       <c r="Y26" t="n">
-        <v>2953.088456340954</v>
+        <v>2953.088456340953</v>
       </c>
     </row>
     <row r="27">
@@ -6284,19 +6284,19 @@
         <v>607.5146224619331</v>
       </c>
       <c r="C27" t="n">
-        <v>501.0581612985754</v>
+        <v>501.0581612985753</v>
       </c>
       <c r="D27" t="n">
         <v>405.9678724451286</v>
       </c>
       <c r="E27" t="n">
-        <v>311.8474577720824</v>
+        <v>311.8474577720823</v>
       </c>
       <c r="F27" t="n">
-        <v>228.463619388244</v>
+        <v>228.4636193882439</v>
       </c>
       <c r="G27" t="n">
-        <v>143.1535310540871</v>
+        <v>143.153531054087</v>
       </c>
       <c r="H27" t="n">
         <v>102.1422344933241</v>
@@ -6308,19 +6308,19 @@
         <v>462.2401065289864</v>
       </c>
       <c r="K27" t="n">
-        <v>1005.791940332991</v>
+        <v>474.1101772889937</v>
       </c>
       <c r="L27" t="n">
-        <v>1021.752715327536</v>
+        <v>490.0709522835386</v>
       </c>
       <c r="M27" t="n">
-        <v>1040.378186925048</v>
+        <v>508.6964238810512</v>
       </c>
       <c r="N27" t="n">
-        <v>1059.496619333927</v>
+        <v>527.8148562899295</v>
       </c>
       <c r="O27" t="n">
-        <v>1076.986249899104</v>
+        <v>545.3044868551063</v>
       </c>
       <c r="P27" t="n">
         <v>1091.023220340725</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1039.344409528127</v>
+        <v>874.099100880012</v>
       </c>
       <c r="C28" t="n">
-        <v>866.7826980113522</v>
+        <v>701.5373893632369</v>
       </c>
       <c r="D28" t="n">
-        <v>700.9047052128749</v>
+        <v>535.6593965647596</v>
       </c>
       <c r="E28" t="n">
-        <v>531.1467014636121</v>
+        <v>365.9013928154969</v>
       </c>
       <c r="F28" t="n">
-        <v>354.4396474253683</v>
+        <v>189.1943387772531</v>
       </c>
       <c r="G28" t="n">
-        <v>188.91125110521</v>
+        <v>102.1422344933241</v>
       </c>
       <c r="H28" t="n">
-        <v>188.91125110521</v>
+        <v>102.1422344933241</v>
       </c>
       <c r="I28" t="n">
         <v>102.1422344933241</v>
@@ -6411,25 +6411,25 @@
         <v>2779.896976828331</v>
       </c>
       <c r="S28" t="n">
-        <v>2779.896976828331</v>
+        <v>2621.751411578553</v>
       </c>
       <c r="T28" t="n">
-        <v>2541.385937145002</v>
+        <v>2376.140628496887</v>
       </c>
       <c r="U28" t="n">
-        <v>2262.956366142872</v>
+        <v>2097.711057494756</v>
       </c>
       <c r="V28" t="n">
-        <v>1976.000858013302</v>
+        <v>1810.755549365187</v>
       </c>
       <c r="W28" t="n">
-        <v>1703.974453599594</v>
+        <v>1538.729144951478</v>
       </c>
       <c r="X28" t="n">
-        <v>1458.582698933006</v>
+        <v>1293.337390284891</v>
       </c>
       <c r="Y28" t="n">
-        <v>1231.163028247114</v>
+        <v>1065.917719598999</v>
       </c>
     </row>
     <row r="29">
@@ -6442,7 +6442,7 @@
         <v>2526.788885856045</v>
       </c>
       <c r="C29" t="n">
-        <v>2088.646413039469</v>
+        <v>2088.646413039468</v>
       </c>
       <c r="D29" t="n">
         <v>1652.736628213913</v>
@@ -6466,22 +6466,22 @@
         <v>553.9456687731839</v>
       </c>
       <c r="K29" t="n">
-        <v>571.4218927017964</v>
+        <v>1405.772184659975</v>
       </c>
       <c r="L29" t="n">
-        <v>1668.162660091529</v>
+        <v>2467.959557054137</v>
       </c>
       <c r="M29" t="n">
-        <v>2849.334564009999</v>
+        <v>2492.083625762057</v>
       </c>
       <c r="N29" t="n">
-        <v>3999.579968806997</v>
+        <v>2516.598047122608</v>
       </c>
       <c r="O29" t="n">
-        <v>4894.734647428526</v>
+        <v>3519.925986636534</v>
       </c>
       <c r="P29" t="n">
-        <v>4914.491162831683</v>
+        <v>4367.992376873088</v>
       </c>
       <c r="Q29" t="n">
         <v>4929.327483119182</v>
@@ -6496,16 +6496,16 @@
         <v>4807.200536626277</v>
       </c>
       <c r="U29" t="n">
-        <v>4547.98944811713</v>
+        <v>4547.989448117129</v>
       </c>
       <c r="V29" t="n">
-        <v>4185.372498050956</v>
+        <v>4185.372498050955</v>
       </c>
       <c r="W29" t="n">
         <v>3780.517043461989</v>
       </c>
       <c r="X29" t="n">
-        <v>3361.3745800413</v>
+        <v>3361.374580041299</v>
       </c>
       <c r="Y29" t="n">
         <v>2953.088456340953</v>
@@ -6521,19 +6521,19 @@
         <v>607.5146224619331</v>
       </c>
       <c r="C30" t="n">
-        <v>501.0581612985754</v>
+        <v>501.0581612985753</v>
       </c>
       <c r="D30" t="n">
         <v>405.9678724451286</v>
       </c>
       <c r="E30" t="n">
-        <v>311.8474577720824</v>
+        <v>311.8474577720823</v>
       </c>
       <c r="F30" t="n">
-        <v>228.463619388244</v>
+        <v>228.4636193882439</v>
       </c>
       <c r="G30" t="n">
-        <v>143.1535310540871</v>
+        <v>143.153531054087</v>
       </c>
       <c r="H30" t="n">
         <v>102.1422344933241</v>
@@ -6545,19 +6545,19 @@
         <v>462.2401065289864</v>
       </c>
       <c r="K30" t="n">
-        <v>1005.791940332991</v>
+        <v>474.1101772889937</v>
       </c>
       <c r="L30" t="n">
-        <v>1021.752715327536</v>
+        <v>490.0709522835386</v>
       </c>
       <c r="M30" t="n">
-        <v>1040.378186925048</v>
+        <v>508.6964238810512</v>
       </c>
       <c r="N30" t="n">
-        <v>1059.496619333927</v>
+        <v>527.8148562899295</v>
       </c>
       <c r="O30" t="n">
-        <v>1076.986249899104</v>
+        <v>545.3044868551063</v>
       </c>
       <c r="P30" t="n">
         <v>1091.023220340725</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1178.687535441156</v>
+        <v>952.5753929162413</v>
       </c>
       <c r="C31" t="n">
-        <v>1006.125823924381</v>
+        <v>780.0136813994662</v>
       </c>
       <c r="D31" t="n">
-        <v>840.2478311259033</v>
+        <v>614.1356886009889</v>
       </c>
       <c r="E31" t="n">
-        <v>670.4898273766405</v>
+        <v>444.3776848517263</v>
       </c>
       <c r="F31" t="n">
-        <v>493.7827733383967</v>
+        <v>267.6706308134825</v>
       </c>
       <c r="G31" t="n">
-        <v>328.2543770182384</v>
+        <v>102.1422344933241</v>
       </c>
       <c r="H31" t="n">
-        <v>188.91125110521</v>
+        <v>102.1422344933241</v>
       </c>
       <c r="I31" t="n">
         <v>102.1422344933241</v>
@@ -6645,28 +6645,28 @@
         <v>2779.896976828331</v>
       </c>
       <c r="R31" t="n">
-        <v>2761.306408467823</v>
+        <v>2779.896976828331</v>
       </c>
       <c r="S31" t="n">
-        <v>2603.160843218045</v>
+        <v>2700.227703614783</v>
       </c>
       <c r="T31" t="n">
-        <v>2603.160843218045</v>
+        <v>2454.616920533116</v>
       </c>
       <c r="U31" t="n">
-        <v>2324.731272215915</v>
+        <v>2176.187349530986</v>
       </c>
       <c r="V31" t="n">
-        <v>2037.775764086345</v>
+        <v>1889.231841401416</v>
       </c>
       <c r="W31" t="n">
-        <v>1765.749359672637</v>
+        <v>1617.205436987708</v>
       </c>
       <c r="X31" t="n">
-        <v>1597.925824846035</v>
+        <v>1371.81368232112</v>
       </c>
       <c r="Y31" t="n">
-        <v>1370.506154160143</v>
+        <v>1144.394011635228</v>
       </c>
     </row>
     <row r="32">
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2526.788885856046</v>
+        <v>2526.788885856045</v>
       </c>
       <c r="C32" t="n">
         <v>2088.646413039469</v>
       </c>
       <c r="D32" t="n">
-        <v>1652.736628213914</v>
+        <v>1652.736628213913</v>
       </c>
       <c r="E32" t="n">
-        <v>1218.961883372209</v>
+        <v>1218.961883372208</v>
       </c>
       <c r="F32" t="n">
-        <v>791.0944537814166</v>
+        <v>791.0944537814162</v>
       </c>
       <c r="G32" t="n">
-        <v>389.8367995776307</v>
+        <v>389.8367995776304</v>
       </c>
       <c r="H32" t="n">
         <v>102.1422344933241</v>
@@ -6703,25 +6703,25 @@
         <v>553.9456687731839</v>
       </c>
       <c r="K32" t="n">
-        <v>571.4218927017964</v>
+        <v>1405.772184659975</v>
       </c>
       <c r="L32" t="n">
-        <v>1668.162660091529</v>
+        <v>2502.512952049707</v>
       </c>
       <c r="M32" t="n">
-        <v>2849.334564009999</v>
+        <v>2526.637020757626</v>
       </c>
       <c r="N32" t="n">
-        <v>3999.579968806997</v>
+        <v>2551.151442118177</v>
       </c>
       <c r="O32" t="n">
-        <v>5002.907908320924</v>
+        <v>3519.925986636534</v>
       </c>
       <c r="P32" t="n">
-        <v>5022.664423724081</v>
+        <v>4367.992376873088</v>
       </c>
       <c r="Q32" t="n">
-        <v>5037.500744011581</v>
+        <v>4929.327483119182</v>
       </c>
       <c r="R32" t="n">
         <v>5107.111724666206</v>
@@ -6745,7 +6745,7 @@
         <v>3361.3745800413</v>
       </c>
       <c r="Y32" t="n">
-        <v>2953.088456340954</v>
+        <v>2953.088456340953</v>
       </c>
     </row>
     <row r="33">
@@ -6758,49 +6758,49 @@
         <v>607.5146224619331</v>
       </c>
       <c r="C33" t="n">
-        <v>501.0581612985754</v>
+        <v>501.0581612985753</v>
       </c>
       <c r="D33" t="n">
         <v>405.9678724451286</v>
       </c>
       <c r="E33" t="n">
-        <v>311.8474577720824</v>
+        <v>311.8474577720823</v>
       </c>
       <c r="F33" t="n">
-        <v>228.463619388244</v>
+        <v>228.4636193882439</v>
       </c>
       <c r="G33" t="n">
-        <v>143.1535310540871</v>
+        <v>143.153531054087</v>
       </c>
       <c r="H33" t="n">
         <v>102.1422344933241</v>
       </c>
       <c r="I33" t="n">
-        <v>104.6731320533116</v>
+        <v>130.7368052137691</v>
       </c>
       <c r="J33" t="n">
-        <v>111.6181084023166</v>
+        <v>462.2401065289864</v>
       </c>
       <c r="K33" t="n">
-        <v>123.4881791623238</v>
+        <v>474.1101772889937</v>
       </c>
       <c r="L33" t="n">
-        <v>859.9412655747532</v>
+        <v>490.0709522835386</v>
       </c>
       <c r="M33" t="n">
-        <v>878.5667371722657</v>
+        <v>508.6964238810512</v>
       </c>
       <c r="N33" t="n">
-        <v>897.685169581144</v>
+        <v>527.8148562899295</v>
       </c>
       <c r="O33" t="n">
-        <v>915.1748001463208</v>
+        <v>545.3044868551063</v>
       </c>
       <c r="P33" t="n">
-        <v>1748.934937067141</v>
+        <v>1091.023220340725</v>
       </c>
       <c r="Q33" t="n">
-        <v>1758.318280071711</v>
+        <v>1641.145501977371</v>
       </c>
       <c r="R33" t="n">
         <v>1762.882278270333</v>
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2526.788885856047</v>
+        <v>2526.788885856046</v>
       </c>
       <c r="C35" t="n">
-        <v>2088.64641303947</v>
+        <v>2088.646413039469</v>
       </c>
       <c r="D35" t="n">
-        <v>1652.736628213915</v>
+        <v>1652.736628213914</v>
       </c>
       <c r="E35" t="n">
-        <v>1218.96188337221</v>
+        <v>1218.961883372209</v>
       </c>
       <c r="F35" t="n">
-        <v>791.0944537814171</v>
+        <v>791.0944537814166</v>
       </c>
       <c r="G35" t="n">
-        <v>389.8367995776307</v>
+        <v>389.8367995776304</v>
       </c>
       <c r="H35" t="n">
         <v>102.1422344933241</v>
@@ -6940,13 +6940,13 @@
         <v>553.9456687731839</v>
       </c>
       <c r="K35" t="n">
-        <v>1405.772184659974</v>
+        <v>1405.772184659975</v>
       </c>
       <c r="L35" t="n">
-        <v>1427.452985796848</v>
+        <v>2467.959557054137</v>
       </c>
       <c r="M35" t="n">
-        <v>1451.577054504767</v>
+        <v>2492.083625762057</v>
       </c>
       <c r="N35" t="n">
         <v>2516.598047122608</v>
@@ -6964,7 +6964,7 @@
         <v>5107.111724666206</v>
       </c>
       <c r="S35" t="n">
-        <v>5026.654138178648</v>
+        <v>5026.654138178649</v>
       </c>
       <c r="T35" t="n">
         <v>4807.200536626277</v>
@@ -6973,16 +6973,16 @@
         <v>4547.98944811713</v>
       </c>
       <c r="V35" t="n">
-        <v>4185.372498050957</v>
+        <v>4185.372498050956</v>
       </c>
       <c r="W35" t="n">
-        <v>3780.51704346199</v>
+        <v>3780.517043461989</v>
       </c>
       <c r="X35" t="n">
-        <v>3361.374580041301</v>
+        <v>3361.3745800413</v>
       </c>
       <c r="Y35" t="n">
-        <v>2953.088456340955</v>
+        <v>2953.088456340954</v>
       </c>
     </row>
     <row r="36">
@@ -6995,49 +6995,49 @@
         <v>607.5146224619331</v>
       </c>
       <c r="C36" t="n">
-        <v>501.0581612985754</v>
+        <v>501.0581612985753</v>
       </c>
       <c r="D36" t="n">
         <v>405.9678724451286</v>
       </c>
       <c r="E36" t="n">
-        <v>311.8474577720824</v>
+        <v>311.8474577720823</v>
       </c>
       <c r="F36" t="n">
-        <v>228.463619388244</v>
+        <v>228.4636193882439</v>
       </c>
       <c r="G36" t="n">
-        <v>143.1535310540871</v>
+        <v>143.153531054087</v>
       </c>
       <c r="H36" t="n">
         <v>102.1422344933241</v>
       </c>
       <c r="I36" t="n">
-        <v>104.6731320533116</v>
+        <v>130.7368052137691</v>
       </c>
       <c r="J36" t="n">
-        <v>111.6181084023166</v>
+        <v>462.2401065289864</v>
       </c>
       <c r="K36" t="n">
-        <v>123.4881791623238</v>
+        <v>474.1101772889937</v>
       </c>
       <c r="L36" t="n">
-        <v>139.4489541568687</v>
+        <v>490.0709522835386</v>
       </c>
       <c r="M36" t="n">
-        <v>464.4626320911572</v>
+        <v>508.6964238810512</v>
       </c>
       <c r="N36" t="n">
-        <v>1717.408336060342</v>
+        <v>527.8148562899295</v>
       </c>
       <c r="O36" t="n">
-        <v>1734.897966625519</v>
+        <v>545.3044868551063</v>
       </c>
       <c r="P36" t="n">
-        <v>1748.934937067141</v>
+        <v>1091.023220340725</v>
       </c>
       <c r="Q36" t="n">
-        <v>1758.318280071711</v>
+        <v>1641.145501977371</v>
       </c>
       <c r="R36" t="n">
         <v>1762.882278270333</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>952.5753929162413</v>
+        <v>1091.91851882927</v>
       </c>
       <c r="C37" t="n">
-        <v>780.0136813994662</v>
+        <v>919.3568073124947</v>
       </c>
       <c r="D37" t="n">
-        <v>614.1356886009889</v>
+        <v>753.4788145140174</v>
       </c>
       <c r="E37" t="n">
-        <v>444.3776848517263</v>
+        <v>583.7208107647547</v>
       </c>
       <c r="F37" t="n">
-        <v>267.6706308134825</v>
+        <v>407.0137567265109</v>
       </c>
       <c r="G37" t="n">
-        <v>102.1422344933241</v>
+        <v>241.4853604063525</v>
       </c>
       <c r="H37" t="n">
         <v>102.1422344933241</v>
@@ -7122,25 +7122,25 @@
         <v>2779.896976828331</v>
       </c>
       <c r="S37" t="n">
-        <v>2621.751411578553</v>
+        <v>2779.896976828331</v>
       </c>
       <c r="T37" t="n">
-        <v>2454.616920533116</v>
+        <v>2593.960046446144</v>
       </c>
       <c r="U37" t="n">
-        <v>2176.187349530986</v>
+        <v>2315.530475444014</v>
       </c>
       <c r="V37" t="n">
-        <v>1889.231841401416</v>
+        <v>2028.574967314445</v>
       </c>
       <c r="W37" t="n">
-        <v>1617.205436987708</v>
+        <v>1756.548562900736</v>
       </c>
       <c r="X37" t="n">
-        <v>1371.81368232112</v>
+        <v>1511.156808234149</v>
       </c>
       <c r="Y37" t="n">
-        <v>1144.394011635228</v>
+        <v>1283.737137548257</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2526.788885856045</v>
+        <v>2526.788885856047</v>
       </c>
       <c r="C38" t="n">
-        <v>2088.646413039468</v>
+        <v>2088.64641303947</v>
       </c>
       <c r="D38" t="n">
-        <v>1652.736628213913</v>
+        <v>1652.736628213915</v>
       </c>
       <c r="E38" t="n">
-        <v>1218.961883372208</v>
+        <v>1218.96188337221</v>
       </c>
       <c r="F38" t="n">
-        <v>791.0944537814162</v>
+        <v>791.0944537814171</v>
       </c>
       <c r="G38" t="n">
-        <v>389.8367995776304</v>
+        <v>389.8367995776307</v>
       </c>
       <c r="H38" t="n">
         <v>102.1422344933241</v>
@@ -7174,25 +7174,25 @@
         <v>107.0303764979941</v>
       </c>
       <c r="J38" t="n">
-        <v>118.690981320266</v>
+        <v>553.9456687731839</v>
       </c>
       <c r="K38" t="n">
-        <v>970.5174972070564</v>
+        <v>1405.772184659975</v>
       </c>
       <c r="L38" t="n">
-        <v>2067.258264596789</v>
+        <v>2291.091388413894</v>
       </c>
       <c r="M38" t="n">
-        <v>3248.430168515259</v>
+        <v>3472.263292332363</v>
       </c>
       <c r="N38" t="n">
-        <v>4398.675573312257</v>
+        <v>3496.777713692914</v>
       </c>
       <c r="O38" t="n">
-        <v>4421.823846255877</v>
+        <v>3519.925986636534</v>
       </c>
       <c r="P38" t="n">
-        <v>4441.580361659035</v>
+        <v>4367.992376873088</v>
       </c>
       <c r="Q38" t="n">
         <v>4929.327483119182</v>
@@ -7201,25 +7201,25 @@
         <v>5107.111724666206</v>
       </c>
       <c r="S38" t="n">
-        <v>5026.654138178649</v>
+        <v>5026.654138178648</v>
       </c>
       <c r="T38" t="n">
         <v>4807.200536626277</v>
       </c>
       <c r="U38" t="n">
-        <v>4547.989448117129</v>
+        <v>4547.98944811713</v>
       </c>
       <c r="V38" t="n">
-        <v>4185.372498050955</v>
+        <v>4185.372498050957</v>
       </c>
       <c r="W38" t="n">
-        <v>3780.517043461989</v>
+        <v>3780.51704346199</v>
       </c>
       <c r="X38" t="n">
-        <v>3361.374580041299</v>
+        <v>3361.374580041301</v>
       </c>
       <c r="Y38" t="n">
-        <v>2953.088456340953</v>
+        <v>2953.088456340955</v>
       </c>
     </row>
     <row r="39">
@@ -7232,43 +7232,43 @@
         <v>607.5146224619331</v>
       </c>
       <c r="C39" t="n">
-        <v>501.0581612985754</v>
+        <v>501.0581612985753</v>
       </c>
       <c r="D39" t="n">
         <v>405.9678724451286</v>
       </c>
       <c r="E39" t="n">
-        <v>311.8474577720824</v>
+        <v>311.8474577720823</v>
       </c>
       <c r="F39" t="n">
-        <v>228.463619388244</v>
+        <v>228.4636193882439</v>
       </c>
       <c r="G39" t="n">
-        <v>143.1535310540871</v>
+        <v>143.153531054087</v>
       </c>
       <c r="H39" t="n">
         <v>102.1422344933241</v>
       </c>
       <c r="I39" t="n">
-        <v>104.6731320533116</v>
+        <v>130.7368052137691</v>
       </c>
       <c r="J39" t="n">
-        <v>111.6181084023166</v>
+        <v>462.2401065289864</v>
       </c>
       <c r="K39" t="n">
-        <v>123.4881791623238</v>
+        <v>474.1101772889937</v>
       </c>
       <c r="L39" t="n">
-        <v>139.4489541568687</v>
+        <v>490.0709522835386</v>
       </c>
       <c r="M39" t="n">
-        <v>158.0744257543813</v>
+        <v>508.6964238810512</v>
       </c>
       <c r="N39" t="n">
-        <v>239.7734528547285</v>
+        <v>527.8148562899295</v>
       </c>
       <c r="O39" t="n">
-        <v>257.2630834199053</v>
+        <v>545.3044868551063</v>
       </c>
       <c r="P39" t="n">
         <v>1091.023220340725</v>
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2526.788885856046</v>
+        <v>2526.788885856045</v>
       </c>
       <c r="C41" t="n">
         <v>2088.646413039469</v>
       </c>
       <c r="D41" t="n">
-        <v>1652.736628213914</v>
+        <v>1652.736628213913</v>
       </c>
       <c r="E41" t="n">
-        <v>1218.961883372209</v>
+        <v>1218.961883372208</v>
       </c>
       <c r="F41" t="n">
-        <v>791.0944537814166</v>
+        <v>791.0944537814162</v>
       </c>
       <c r="G41" t="n">
-        <v>389.8367995776308</v>
+        <v>389.8367995776304</v>
       </c>
       <c r="H41" t="n">
         <v>102.1422344933241</v>
@@ -7414,19 +7414,19 @@
         <v>553.9456687731839</v>
       </c>
       <c r="K41" t="n">
-        <v>571.4218927017964</v>
+        <v>1405.772184659975</v>
       </c>
       <c r="L41" t="n">
-        <v>593.1026938386694</v>
+        <v>1427.452985796848</v>
       </c>
       <c r="M41" t="n">
-        <v>1774.27459775714</v>
+        <v>1451.577054504767</v>
       </c>
       <c r="N41" t="n">
-        <v>2924.520002554138</v>
+        <v>2516.598047122608</v>
       </c>
       <c r="O41" t="n">
-        <v>3927.847942068064</v>
+        <v>3519.925986636534</v>
       </c>
       <c r="P41" t="n">
         <v>4367.992376873088</v>
@@ -7456,7 +7456,7 @@
         <v>3361.3745800413</v>
       </c>
       <c r="Y41" t="n">
-        <v>2953.088456340954</v>
+        <v>2953.088456340953</v>
       </c>
     </row>
     <row r="42">
@@ -7469,19 +7469,19 @@
         <v>607.5146224619331</v>
       </c>
       <c r="C42" t="n">
-        <v>501.0581612985754</v>
+        <v>501.0581612985753</v>
       </c>
       <c r="D42" t="n">
         <v>405.9678724451286</v>
       </c>
       <c r="E42" t="n">
-        <v>311.8474577720824</v>
+        <v>311.8474577720823</v>
       </c>
       <c r="F42" t="n">
-        <v>228.463619388244</v>
+        <v>228.4636193882439</v>
       </c>
       <c r="G42" t="n">
-        <v>143.1535310540871</v>
+        <v>143.153531054087</v>
       </c>
       <c r="H42" t="n">
         <v>102.1422344933241</v>
@@ -7493,19 +7493,19 @@
         <v>462.2401065289864</v>
       </c>
       <c r="K42" t="n">
-        <v>1005.791940332991</v>
+        <v>474.1101772889937</v>
       </c>
       <c r="L42" t="n">
-        <v>1021.752715327536</v>
+        <v>490.0709522835386</v>
       </c>
       <c r="M42" t="n">
-        <v>1040.378186925048</v>
+        <v>508.6964238810512</v>
       </c>
       <c r="N42" t="n">
-        <v>1059.496619333927</v>
+        <v>527.8148562899295</v>
       </c>
       <c r="O42" t="n">
-        <v>1076.986249899104</v>
+        <v>545.3044868551063</v>
       </c>
       <c r="P42" t="n">
         <v>1091.023220340725</v>
@@ -7545,7 +7545,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>874.099100880012</v>
+        <v>952.5753929162413</v>
       </c>
       <c r="C43" t="n">
         <v>780.0136813994662</v>
@@ -7596,25 +7596,25 @@
         <v>2779.896976828331</v>
       </c>
       <c r="S43" t="n">
-        <v>2621.751411578553</v>
+        <v>2700.227703614783</v>
       </c>
       <c r="T43" t="n">
-        <v>2376.140628496887</v>
+        <v>2454.616920533116</v>
       </c>
       <c r="U43" t="n">
-        <v>2097.711057494756</v>
+        <v>2176.187349530986</v>
       </c>
       <c r="V43" t="n">
-        <v>1810.755549365187</v>
+        <v>1889.231841401416</v>
       </c>
       <c r="W43" t="n">
-        <v>1538.729144951478</v>
+        <v>1617.205436987708</v>
       </c>
       <c r="X43" t="n">
-        <v>1293.337390284891</v>
+        <v>1371.81368232112</v>
       </c>
       <c r="Y43" t="n">
-        <v>1065.917719598999</v>
+        <v>1144.394011635228</v>
       </c>
     </row>
     <row r="44">
@@ -7627,7 +7627,7 @@
         <v>2526.788885856045</v>
       </c>
       <c r="C44" t="n">
-        <v>2088.646413039468</v>
+        <v>2088.646413039469</v>
       </c>
       <c r="D44" t="n">
         <v>1652.736628213913</v>
@@ -7651,7 +7651,7 @@
         <v>553.9456687731839</v>
       </c>
       <c r="K44" t="n">
-        <v>1405.772184659974</v>
+        <v>1405.772184659975</v>
       </c>
       <c r="L44" t="n">
         <v>2502.512952049707</v>
@@ -7660,13 +7660,13 @@
         <v>3683.684855968177</v>
       </c>
       <c r="N44" t="n">
-        <v>4833.930260765174</v>
+        <v>3708.199277328727</v>
       </c>
       <c r="O44" t="n">
-        <v>4894.734647428526</v>
+        <v>3731.347550272348</v>
       </c>
       <c r="P44" t="n">
-        <v>4914.491162831683</v>
+        <v>4367.992376873088</v>
       </c>
       <c r="Q44" t="n">
         <v>4929.327483119182</v>
@@ -7675,22 +7675,22 @@
         <v>5107.111724666206</v>
       </c>
       <c r="S44" t="n">
-        <v>5026.654138178649</v>
+        <v>5026.654138178648</v>
       </c>
       <c r="T44" t="n">
         <v>4807.200536626277</v>
       </c>
       <c r="U44" t="n">
-        <v>4547.989448117129</v>
+        <v>4547.98944811713</v>
       </c>
       <c r="V44" t="n">
-        <v>4185.372498050955</v>
+        <v>4185.372498050956</v>
       </c>
       <c r="W44" t="n">
         <v>3780.517043461989</v>
       </c>
       <c r="X44" t="n">
-        <v>3361.374580041299</v>
+        <v>3361.3745800413</v>
       </c>
       <c r="Y44" t="n">
         <v>2953.088456340953</v>
@@ -7706,19 +7706,19 @@
         <v>607.5146224619331</v>
       </c>
       <c r="C45" t="n">
-        <v>501.0581612985754</v>
+        <v>501.0581612985753</v>
       </c>
       <c r="D45" t="n">
         <v>405.9678724451286</v>
       </c>
       <c r="E45" t="n">
-        <v>311.8474577720824</v>
+        <v>311.8474577720823</v>
       </c>
       <c r="F45" t="n">
-        <v>228.463619388244</v>
+        <v>228.4636193882439</v>
       </c>
       <c r="G45" t="n">
-        <v>143.1535310540871</v>
+        <v>143.153531054087</v>
       </c>
       <c r="H45" t="n">
         <v>102.1422344933241</v>
@@ -7791,13 +7791,13 @@
         <v>535.6593965647596</v>
       </c>
       <c r="E46" t="n">
-        <v>365.9013928154969</v>
+        <v>418.1924144445964</v>
       </c>
       <c r="F46" t="n">
-        <v>189.1943387772531</v>
+        <v>241.4853604063525</v>
       </c>
       <c r="G46" t="n">
-        <v>102.1422344933241</v>
+        <v>241.4853604063525</v>
       </c>
       <c r="H46" t="n">
         <v>102.1422344933241</v>
@@ -7978,7 +7978,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -7987,13 +7987,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>424.2958575201043</v>
       </c>
       <c r="P2" t="n">
         <v>424.2958575201044</v>
@@ -8060,22 +8060,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>358.9284720888815</v>
+      </c>
+      <c r="P3" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>358.9284720888814</v>
       </c>
       <c r="Q3" t="n">
         <v>424.2958575201044</v>
@@ -8142,22 +8142,22 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>115.4433635180153</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201044</v>
+        <v>370.2350542247758</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8215,7 +8215,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -8224,7 +8224,7 @@
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
@@ -8291,13 +8291,13 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>358.9284720888815</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8306,10 +8306,10 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>288.7962490401609</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="P6" t="n">
         <v>424.2958575201044</v>
@@ -8379,16 +8379,16 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>369.8475292559658</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="P7" t="n">
         <v>351.0170646165068</v>
@@ -8452,31 +8452,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
         <v>424.2958575201043</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>424.2958575201043</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>236.2898988798406</v>
+        <v>407.1525905495951</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8534,13 +8534,13 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M9" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -8549,7 +8549,7 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>424.2958575201044</v>
@@ -8610,7 +8610,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>34.86753268700501</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
         <v>277.5337924960966</v>
@@ -8619,7 +8619,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201044</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
@@ -8692,22 +8692,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>842.7780726850283</v>
+        <v>328.7955754740543</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N11" t="n">
-        <v>1051.016738643728</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O11" t="n">
-        <v>990.0804712831379</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157522</v>
@@ -8771,10 +8771,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>237.4246777366758</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8786,13 +8786,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>537.0522859030274</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8929,19 +8929,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>1168.735187081365</v>
+        <v>955.1780520956941</v>
       </c>
       <c r="N14" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>578.0380920593702</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
         <v>836.6766412458549</v>
@@ -9002,10 +9002,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9017,13 +9017,13 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>891.2159203744112</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>537.0522859030274</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -9163,10 +9163,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
         <v>1085.919157831171</v>
@@ -9175,7 +9175,7 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>404.7487802599485</v>
+        <v>807.8756534975848</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
@@ -9245,7 +9245,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>537.0522859030276</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9260,7 +9260,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>537.0522859030274</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
@@ -9406,16 +9406,16 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L20" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>1051.016738643727</v>
       </c>
       <c r="O20" t="n">
-        <v>955.1780520956941</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P20" t="n">
         <v>836.6766412458549</v>
@@ -9476,16 +9476,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>531.7311798775564</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9494,16 +9494,16 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>537.0522859030274</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9637,19 +9637,19 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>281.2875411435718</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L23" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>1137.102003471159</v>
+        <v>1051.016738643727</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
@@ -9661,7 +9661,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9719,7 +9719,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>537.0522859030276</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9734,7 +9734,7 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>537.0522859030274</v>
       </c>
       <c r="Q24" t="n">
         <v>546.2009481132077</v>
@@ -9880,10 +9880,10 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
-        <v>1051.016738643728</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>517.1165565283081</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -9895,7 +9895,7 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q26" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>170.8626916697543</v>
@@ -9956,7 +9956,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>537.0522859030276</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9971,7 +9971,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>537.0522859030274</v>
       </c>
       <c r="Q27" t="n">
         <v>546.2009481132077</v>
@@ -10114,25 +10114,25 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L29" t="n">
-        <v>1085.919157831171</v>
+        <v>1051.016738643727</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>880.8145511898065</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R29" t="n">
         <v>170.8626916697543</v>
@@ -10193,7 +10193,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>537.0522859030276</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10208,7 +10208,7 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>537.0522859030274</v>
       </c>
       <c r="Q30" t="n">
         <v>546.2009481132077</v>
@@ -10351,28 +10351,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>990.0804712831379</v>
+        <v>955.1780520956941</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R32" t="n">
-        <v>61.59677157642182</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10424,16 +10424,16 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>727.7700115332167</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>828.0031984638366</v>
+        <v>537.0522859030274</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10591,13 +10591,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>1051.016738643727</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>1051.016738643728</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
@@ -10661,10 +10661,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -10673,22 +10673,22 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>309.4830367038142</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>537.0522859030274</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10822,28 +10822,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
-        <v>1085.919157831171</v>
+        <v>872.3620228455009</v>
       </c>
       <c r="M38" t="n">
         <v>1168.735187081365</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q38" t="n">
-        <v>477.6876779521699</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R38" t="n">
         <v>170.8626916697543</v>
@@ -10898,10 +10898,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -10913,13 +10913,13 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>63.21272191057466</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>828.0031984638366</v>
+        <v>537.0522859030274</v>
       </c>
       <c r="Q39" t="n">
         <v>546.2009481132077</v>
@@ -11062,22 +11062,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>1137.102003471159</v>
+        <v>1051.016738643727</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P41" t="n">
-        <v>424.6342620220876</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q41" t="n">
         <v>552.0189757157522</v>
@@ -11141,7 +11141,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>537.0522859030276</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11156,7 +11156,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>537.0522859030274</v>
       </c>
       <c r="Q42" t="n">
         <v>546.2009481132077</v>
@@ -11308,16 +11308,16 @@
         <v>1168.735187081365</v>
       </c>
       <c r="N44" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>38.03647850477864</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>623.1195062601851</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
         <v>170.8626916697543</v>
@@ -23436,7 +23436,7 @@
         <v>137.9496946538981</v>
       </c>
       <c r="I13" t="n">
-        <v>85.90132644576698</v>
+        <v>85.90132644576697</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,10 +23466,10 @@
         <v>18.4046626769032</v>
       </c>
       <c r="S13" t="n">
-        <v>77.6915291158666</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>77.69152911586681</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23655,7 +23655,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23664,7 +23664,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>7.028745964353931</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23673,7 +23673,7 @@
         <v>137.9496946538981</v>
       </c>
       <c r="I16" t="n">
-        <v>11.16142383692993</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>18.4046626769032</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>156.56410959728</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23898,7 +23898,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>59.07711417248503</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23907,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>137.9496946538981</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>85.90132644576698</v>
+        <v>85.90132644576697</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,7 +23940,7 @@
         <v>18.4046626769032</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>156.56410959728</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23949,7 +23949,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>77.69152911586698</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24141,13 +24141,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>77.69152911586711</v>
+        <v>59.07711417248505</v>
       </c>
       <c r="H22" t="n">
-        <v>137.9496946538981</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>85.90132644576698</v>
+        <v>85.90132644576697</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,7 +24177,7 @@
         <v>18.4046626769032</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>156.56410959728</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24378,13 +24378,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>77.69152911586711</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>137.9496946538981</v>
       </c>
       <c r="I25" t="n">
-        <v>85.90132644576698</v>
+        <v>85.90132644576697</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24420,7 +24420,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>25.74079123796776</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24615,13 +24615,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>77.6915291158671</v>
       </c>
       <c r="H28" t="n">
         <v>137.9496946538981</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>85.90132644576697</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,10 +24651,10 @@
         <v>18.4046626769032</v>
       </c>
       <c r="S28" t="n">
-        <v>156.56410959728</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>7.028745964353703</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24855,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>137.9496946538981</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>85.90132644576697</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>18.4046626769032</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>77.6915291158666</v>
       </c>
       <c r="T31" t="n">
-        <v>243.1546752508501</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24903,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>76.79253764158537</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25095,7 +25095,7 @@
         <v>137.9496946538981</v>
       </c>
       <c r="I34" t="n">
-        <v>85.90132644576698</v>
+        <v>85.90132644576697</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25329,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>137.9496946538981</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>85.90132644576698</v>
+        <v>85.90132644576697</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,10 +25362,10 @@
         <v>18.4046626769032</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>156.56410959728</v>
       </c>
       <c r="T37" t="n">
-        <v>77.69152911586681</v>
+        <v>59.07711417248476</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25569,7 +25569,7 @@
         <v>137.9496946538981</v>
       </c>
       <c r="I40" t="n">
-        <v>85.90132644576698</v>
+        <v>85.90132644576697</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25788,7 +25788,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>77.69152911586704</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25806,7 +25806,7 @@
         <v>137.9496946538981</v>
       </c>
       <c r="I43" t="n">
-        <v>85.90132644576698</v>
+        <v>85.90132644576697</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,7 +25836,7 @@
         <v>18.4046626769032</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>77.6915291158666</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26031,19 +26031,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>51.76811141280849</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>77.69152911586711</v>
+        <v>163.8731123569568</v>
       </c>
       <c r="H46" t="n">
-        <v>137.9496946538981</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>85.90132644576698</v>
+        <v>85.90132644576697</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>618356.5692234484</v>
+        <v>618356.5692234483</v>
       </c>
     </row>
     <row r="7">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>618356.5692234485</v>
+        <v>618356.5692234484</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>618356.5692234485</v>
+        <v>618356.5692234484</v>
       </c>
     </row>
     <row r="12">
@@ -26316,19 +26316,19 @@
         <v>442321.538909587</v>
       </c>
       <c r="C2" t="n">
-        <v>442321.538909587</v>
+        <v>442321.5389095868</v>
       </c>
       <c r="D2" t="n">
         <v>442321.5389095869</v>
       </c>
       <c r="E2" t="n">
-        <v>435986.5840943167</v>
+        <v>435986.5840943168</v>
       </c>
       <c r="F2" t="n">
+        <v>435986.5840943166</v>
+      </c>
+      <c r="G2" t="n">
         <v>435986.5840943168</v>
-      </c>
-      <c r="G2" t="n">
-        <v>435986.5840943167</v>
       </c>
       <c r="H2" t="n">
         <v>435986.5840943168</v>
@@ -26340,22 +26340,22 @@
         <v>435986.5840943167</v>
       </c>
       <c r="K2" t="n">
-        <v>435986.5840943169</v>
+        <v>435986.5840943168</v>
       </c>
       <c r="L2" t="n">
         <v>435986.5840943168</v>
       </c>
       <c r="M2" t="n">
-        <v>435986.5840943166</v>
+        <v>435986.5840943167</v>
       </c>
       <c r="N2" t="n">
-        <v>435986.5840943168</v>
+        <v>435986.5840943167</v>
       </c>
       <c r="O2" t="n">
         <v>435986.5840943167</v>
       </c>
       <c r="P2" t="n">
-        <v>435986.5840943168</v>
+        <v>435986.5840943166</v>
       </c>
     </row>
     <row r="3">
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>111014.4653449902</v>
+        <v>111014.4653449901</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26493,7 +26493,7 @@
         <v>78380.64252189653</v>
       </c>
       <c r="J5" t="n">
-        <v>78380.64252189653</v>
+        <v>78380.64252189652</v>
       </c>
       <c r="K5" t="n">
         <v>78380.64252189653</v>
@@ -26524,46 +26524,46 @@
         <v>10215.89088938334</v>
       </c>
       <c r="C6" t="n">
-        <v>152407.1915490932</v>
+        <v>152407.191549093</v>
       </c>
       <c r="D6" t="n">
         <v>152407.1915490931</v>
       </c>
       <c r="E6" t="n">
-        <v>-54991.04768332362</v>
+        <v>-55010.24451609709</v>
       </c>
       <c r="F6" t="n">
-        <v>227275.1226015544</v>
+        <v>227255.9257687807</v>
       </c>
       <c r="G6" t="n">
-        <v>227275.1226015543</v>
+        <v>227255.9257687808</v>
       </c>
       <c r="H6" t="n">
-        <v>227275.1226015544</v>
+        <v>227255.9257687808</v>
       </c>
       <c r="I6" t="n">
-        <v>227275.1226015543</v>
+        <v>227255.9257687808</v>
       </c>
       <c r="J6" t="n">
-        <v>116260.6572565641</v>
+        <v>116241.4604237906</v>
       </c>
       <c r="K6" t="n">
-        <v>227275.1226015544</v>
+        <v>227255.9257687808</v>
       </c>
       <c r="L6" t="n">
-        <v>227275.1226015544</v>
+        <v>227255.9257687808</v>
       </c>
       <c r="M6" t="n">
-        <v>14833.17992056499</v>
+        <v>14813.98308779153</v>
       </c>
       <c r="N6" t="n">
-        <v>227275.1226015544</v>
+        <v>227255.9257687807</v>
       </c>
       <c r="O6" t="n">
-        <v>227275.1226015543</v>
+        <v>227255.9257687808</v>
       </c>
       <c r="P6" t="n">
-        <v>227275.1226015543</v>
+        <v>227255.9257687807</v>
       </c>
     </row>
   </sheetData>
@@ -26746,40 +26746,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>34.52038105367912</v>
+        <v>34.52038105367916</v>
       </c>
       <c r="F3" t="n">
-        <v>34.52038105367912</v>
+        <v>34.52038105367916</v>
       </c>
       <c r="G3" t="n">
-        <v>34.52038105367912</v>
+        <v>34.52038105367916</v>
       </c>
       <c r="H3" t="n">
-        <v>34.52038105367912</v>
+        <v>34.52038105367916</v>
       </c>
       <c r="I3" t="n">
-        <v>34.52038105367912</v>
+        <v>34.52038105367916</v>
       </c>
       <c r="J3" t="n">
-        <v>34.52038105367912</v>
+        <v>34.52038105367916</v>
       </c>
       <c r="K3" t="n">
-        <v>34.52038105367912</v>
+        <v>34.52038105367916</v>
       </c>
       <c r="L3" t="n">
-        <v>34.52038105367912</v>
+        <v>34.52038105367916</v>
       </c>
       <c r="M3" t="n">
-        <v>34.52038105367912</v>
+        <v>34.52038105367916</v>
       </c>
       <c r="N3" t="n">
-        <v>34.52038105367912</v>
+        <v>34.52038105367916</v>
       </c>
       <c r="O3" t="n">
-        <v>34.52038105367912</v>
+        <v>34.52038105367916</v>
       </c>
       <c r="P3" t="n">
-        <v>34.52038105367912</v>
+        <v>34.52038105367916</v>
       </c>
     </row>
     <row r="4">
@@ -26813,7 +26813,7 @@
         <v>1276.777931166552</v>
       </c>
       <c r="J4" t="n">
-        <v>1276.777931166552</v>
+        <v>1276.777931166551</v>
       </c>
       <c r="K4" t="n">
         <v>1276.777931166552</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>34.52038105367912</v>
+        <v>34.52038105367916</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201044</v>
+        <v>424.2958575201042</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27384,13 +27384,13 @@
         <v>9.465190568306582</v>
       </c>
       <c r="D2" t="n">
-        <v>7.254829457195569</v>
+        <v>400</v>
       </c>
       <c r="E2" t="n">
         <v>5.14113987318342</v>
       </c>
       <c r="F2" t="n">
-        <v>92.27936154326903</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>397.3838530629687</v>
@@ -27438,13 +27438,13 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>58.52497156597627</v>
       </c>
       <c r="W2" t="n">
         <v>400</v>
       </c>
       <c r="X2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>400</v>
@@ -27536,13 +27536,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27551,7 +27551,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27584,28 +27584,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>82.10632102715093</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>242.9378371199217</v>
+        <v>60.35127749888997</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27615,19 +27615,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C5" t="n">
-        <v>113.7278999628231</v>
+        <v>191.8147366467724</v>
       </c>
       <c r="D5" t="n">
         <v>400</v>
       </c>
       <c r="E5" t="n">
-        <v>400</v>
+        <v>5.14113987318342</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>397.3838530629687</v>
@@ -27636,7 +27636,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>217.8665548556918</v>
@@ -27681,7 +27681,7 @@
         <v>400</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189.9004325317972</v>
+        <v>65.83508218321208</v>
       </c>
       <c r="C7" t="n">
         <v>170.8360944016073</v>
@@ -27782,10 +27782,10 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>159.066323984242</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -27821,16 +27821,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27842,7 +27842,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27852,10 +27852,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>196.5432550408247</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>400</v>
+        <v>72.71868052833509</v>
       </c>
       <c r="D8" t="n">
         <v>400</v>
@@ -27864,7 +27864,7 @@
         <v>400</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>397.3838530629687</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
         <v>217.8665548556918</v>
@@ -27912,16 +27912,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="9">
@@ -28016,19 +28016,19 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>79.06433089850492</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>87.77334973307141</v>
@@ -28058,28 +28058,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>110.8112610975815</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="11">
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1387754012208205</v>
+        <v>0.1387754012208206</v>
       </c>
       <c r="H11" t="n">
-        <v>1.421233577752728</v>
+        <v>1.42123357775273</v>
       </c>
       <c r="I11" t="n">
-        <v>5.350138655565687</v>
+        <v>5.350138655565693</v>
       </c>
       <c r="J11" t="n">
-        <v>11.77838870936562</v>
+        <v>11.77838870936564</v>
       </c>
       <c r="K11" t="n">
-        <v>17.65275144304296</v>
+        <v>17.65275144304298</v>
       </c>
       <c r="L11" t="n">
-        <v>21.89979912815465</v>
+        <v>21.89979912815467</v>
       </c>
       <c r="M11" t="n">
-        <v>24.36774616961542</v>
+        <v>24.36774616961544</v>
       </c>
       <c r="N11" t="n">
-        <v>24.76204177833407</v>
+        <v>24.7620417783341</v>
       </c>
       <c r="O11" t="n">
-        <v>23.38209388244454</v>
+        <v>23.38209388244456</v>
       </c>
       <c r="P11" t="n">
-        <v>19.95607616480553</v>
+        <v>19.95607616480555</v>
       </c>
       <c r="Q11" t="n">
-        <v>14.98618210858489</v>
+        <v>14.9861821085849</v>
       </c>
       <c r="R11" t="n">
-        <v>8.717350296937372</v>
+        <v>8.717350296937383</v>
       </c>
       <c r="S11" t="n">
-        <v>3.16234445531945</v>
+        <v>3.162344455319453</v>
       </c>
       <c r="T11" t="n">
-        <v>0.607489318844142</v>
+        <v>0.6074893188441426</v>
       </c>
       <c r="U11" t="n">
-        <v>0.01110203209766564</v>
+        <v>0.01110203209766565</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.07425138566263056</v>
+        <v>0.07425138566263065</v>
       </c>
       <c r="H12" t="n">
-        <v>0.7171120667943532</v>
+        <v>0.717112066794354</v>
       </c>
       <c r="I12" t="n">
-        <v>2.556462181805482</v>
+        <v>2.556462181805485</v>
       </c>
       <c r="J12" t="n">
-        <v>7.015127625257567</v>
+        <v>7.015127625257574</v>
       </c>
       <c r="K12" t="n">
-        <v>11.98997046465382</v>
+        <v>11.98997046465383</v>
       </c>
       <c r="L12" t="n">
-        <v>16.12199494398477</v>
+        <v>16.12199494398478</v>
       </c>
       <c r="M12" t="n">
-        <v>18.81360767425512</v>
+        <v>18.81360767425514</v>
       </c>
       <c r="N12" t="n">
-        <v>19.31154788775584</v>
+        <v>19.31154788775585</v>
       </c>
       <c r="O12" t="n">
-        <v>17.6662935001786</v>
+        <v>17.66629350017862</v>
       </c>
       <c r="P12" t="n">
-        <v>14.17875802184039</v>
+        <v>14.17875802184041</v>
       </c>
       <c r="Q12" t="n">
-        <v>9.478124247040352</v>
+        <v>9.478124247040363</v>
       </c>
       <c r="R12" t="n">
-        <v>4.610099190527188</v>
+        <v>4.610099190527192</v>
       </c>
       <c r="S12" t="n">
-        <v>1.379186922286141</v>
+        <v>1.379186922286143</v>
       </c>
       <c r="T12" t="n">
-        <v>0.2992851904559538</v>
+        <v>0.2992851904559541</v>
       </c>
       <c r="U12" t="n">
-        <v>0.004884959583067803</v>
+        <v>0.004884959583067808</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.06224986747384759</v>
+        <v>0.06224986747384766</v>
       </c>
       <c r="H13" t="n">
-        <v>0.5534579126311181</v>
+        <v>0.5534579126311187</v>
       </c>
       <c r="I13" t="n">
-        <v>1.872023287304436</v>
+        <v>1.872023287304437</v>
       </c>
       <c r="J13" t="n">
-        <v>4.401065630401025</v>
+        <v>4.401065630401029</v>
       </c>
       <c r="K13" t="n">
-        <v>7.232302784688837</v>
+        <v>7.232302784688844</v>
       </c>
       <c r="L13" t="n">
-        <v>9.254857569702761</v>
+        <v>9.25485756970277</v>
       </c>
       <c r="M13" t="n">
-        <v>9.757949680468672</v>
+        <v>9.757949680468682</v>
       </c>
       <c r="N13" t="n">
-        <v>9.525927447157066</v>
+        <v>9.525927447157075</v>
       </c>
       <c r="O13" t="n">
-        <v>8.798735813485298</v>
+        <v>8.798735813485306</v>
       </c>
       <c r="P13" t="n">
-        <v>7.528838517018801</v>
+        <v>7.528838517018809</v>
       </c>
       <c r="Q13" t="n">
-        <v>5.212577539105547</v>
+        <v>5.212577539105553</v>
       </c>
       <c r="R13" t="n">
-        <v>2.798980404778638</v>
+        <v>2.79898040477864</v>
       </c>
       <c r="S13" t="n">
-        <v>1.084845417703325</v>
+        <v>1.084845417703326</v>
       </c>
       <c r="T13" t="n">
-        <v>0.2659767064791669</v>
+        <v>0.2659767064791672</v>
       </c>
       <c r="U13" t="n">
-        <v>0.003395447316755327</v>
+        <v>0.003395447316755331</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.1387754012208205</v>
+        <v>0.1387754012208206</v>
       </c>
       <c r="H14" t="n">
-        <v>1.421233577752728</v>
+        <v>1.42123357775273</v>
       </c>
       <c r="I14" t="n">
-        <v>5.350138655565687</v>
+        <v>5.350138655565693</v>
       </c>
       <c r="J14" t="n">
-        <v>11.77838870936562</v>
+        <v>11.77838870936564</v>
       </c>
       <c r="K14" t="n">
-        <v>17.65275144304296</v>
+        <v>17.65275144304298</v>
       </c>
       <c r="L14" t="n">
-        <v>21.89979912815465</v>
+        <v>21.89979912815467</v>
       </c>
       <c r="M14" t="n">
-        <v>24.36774616961542</v>
+        <v>24.36774616961544</v>
       </c>
       <c r="N14" t="n">
-        <v>24.76204177833407</v>
+        <v>24.7620417783341</v>
       </c>
       <c r="O14" t="n">
-        <v>23.38209388244454</v>
+        <v>23.38209388244456</v>
       </c>
       <c r="P14" t="n">
-        <v>19.95607616480553</v>
+        <v>19.95607616480555</v>
       </c>
       <c r="Q14" t="n">
-        <v>14.98618210858489</v>
+        <v>14.9861821085849</v>
       </c>
       <c r="R14" t="n">
-        <v>8.717350296937372</v>
+        <v>8.717350296937383</v>
       </c>
       <c r="S14" t="n">
-        <v>3.16234445531945</v>
+        <v>3.162344455319453</v>
       </c>
       <c r="T14" t="n">
-        <v>0.607489318844142</v>
+        <v>0.6074893188441426</v>
       </c>
       <c r="U14" t="n">
-        <v>0.01110203209766564</v>
+        <v>0.01110203209766565</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.07425138566263056</v>
+        <v>0.07425138566263065</v>
       </c>
       <c r="H15" t="n">
-        <v>0.7171120667943532</v>
+        <v>0.717112066794354</v>
       </c>
       <c r="I15" t="n">
-        <v>2.556462181805482</v>
+        <v>2.556462181805485</v>
       </c>
       <c r="J15" t="n">
-        <v>7.015127625257567</v>
+        <v>7.015127625257574</v>
       </c>
       <c r="K15" t="n">
-        <v>11.98997046465382</v>
+        <v>11.98997046465383</v>
       </c>
       <c r="L15" t="n">
-        <v>16.12199494398477</v>
+        <v>16.12199494398478</v>
       </c>
       <c r="M15" t="n">
-        <v>18.81360767425512</v>
+        <v>18.81360767425514</v>
       </c>
       <c r="N15" t="n">
-        <v>19.31154788775584</v>
+        <v>19.31154788775585</v>
       </c>
       <c r="O15" t="n">
-        <v>17.6662935001786</v>
+        <v>17.66629350017862</v>
       </c>
       <c r="P15" t="n">
-        <v>14.17875802184039</v>
+        <v>14.17875802184041</v>
       </c>
       <c r="Q15" t="n">
-        <v>9.478124247040352</v>
+        <v>9.478124247040363</v>
       </c>
       <c r="R15" t="n">
-        <v>4.610099190527188</v>
+        <v>4.610099190527192</v>
       </c>
       <c r="S15" t="n">
-        <v>1.379186922286141</v>
+        <v>1.379186922286143</v>
       </c>
       <c r="T15" t="n">
-        <v>0.2992851904559538</v>
+        <v>0.2992851904559541</v>
       </c>
       <c r="U15" t="n">
-        <v>0.004884959583067803</v>
+        <v>0.004884959583067808</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.06224986747384759</v>
+        <v>0.06224986747384766</v>
       </c>
       <c r="H16" t="n">
-        <v>0.5534579126311181</v>
+        <v>0.5534579126311187</v>
       </c>
       <c r="I16" t="n">
-        <v>1.872023287304436</v>
+        <v>1.872023287304437</v>
       </c>
       <c r="J16" t="n">
-        <v>4.401065630401025</v>
+        <v>4.401065630401029</v>
       </c>
       <c r="K16" t="n">
-        <v>7.232302784688837</v>
+        <v>7.232302784688844</v>
       </c>
       <c r="L16" t="n">
-        <v>9.254857569702761</v>
+        <v>9.25485756970277</v>
       </c>
       <c r="M16" t="n">
-        <v>9.757949680468672</v>
+        <v>9.757949680468682</v>
       </c>
       <c r="N16" t="n">
-        <v>9.525927447157066</v>
+        <v>9.525927447157075</v>
       </c>
       <c r="O16" t="n">
-        <v>8.798735813485298</v>
+        <v>8.798735813485306</v>
       </c>
       <c r="P16" t="n">
-        <v>7.528838517018801</v>
+        <v>7.528838517018809</v>
       </c>
       <c r="Q16" t="n">
-        <v>5.212577539105547</v>
+        <v>5.212577539105553</v>
       </c>
       <c r="R16" t="n">
-        <v>2.798980404778638</v>
+        <v>2.79898040477864</v>
       </c>
       <c r="S16" t="n">
-        <v>1.084845417703325</v>
+        <v>1.084845417703326</v>
       </c>
       <c r="T16" t="n">
-        <v>0.2659767064791669</v>
+        <v>0.2659767064791672</v>
       </c>
       <c r="U16" t="n">
-        <v>0.003395447316755327</v>
+        <v>0.003395447316755331</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.1387754012208205</v>
+        <v>0.1387754012208206</v>
       </c>
       <c r="H17" t="n">
-        <v>1.421233577752728</v>
+        <v>1.42123357775273</v>
       </c>
       <c r="I17" t="n">
-        <v>5.350138655565687</v>
+        <v>5.350138655565693</v>
       </c>
       <c r="J17" t="n">
-        <v>11.77838870936562</v>
+        <v>11.77838870936564</v>
       </c>
       <c r="K17" t="n">
-        <v>17.65275144304296</v>
+        <v>17.65275144304298</v>
       </c>
       <c r="L17" t="n">
-        <v>21.89979912815465</v>
+        <v>21.89979912815467</v>
       </c>
       <c r="M17" t="n">
-        <v>24.36774616961542</v>
+        <v>24.36774616961544</v>
       </c>
       <c r="N17" t="n">
-        <v>24.76204177833407</v>
+        <v>24.7620417783341</v>
       </c>
       <c r="O17" t="n">
-        <v>23.38209388244454</v>
+        <v>23.38209388244456</v>
       </c>
       <c r="P17" t="n">
-        <v>19.95607616480553</v>
+        <v>19.95607616480555</v>
       </c>
       <c r="Q17" t="n">
-        <v>14.98618210858489</v>
+        <v>14.9861821085849</v>
       </c>
       <c r="R17" t="n">
-        <v>8.717350296937372</v>
+        <v>8.717350296937383</v>
       </c>
       <c r="S17" t="n">
-        <v>3.16234445531945</v>
+        <v>3.162344455319453</v>
       </c>
       <c r="T17" t="n">
-        <v>0.607489318844142</v>
+        <v>0.6074893188441426</v>
       </c>
       <c r="U17" t="n">
-        <v>0.01110203209766564</v>
+        <v>0.01110203209766565</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.07425138566263056</v>
+        <v>0.07425138566263065</v>
       </c>
       <c r="H18" t="n">
-        <v>0.7171120667943532</v>
+        <v>0.717112066794354</v>
       </c>
       <c r="I18" t="n">
-        <v>2.556462181805482</v>
+        <v>2.556462181805485</v>
       </c>
       <c r="J18" t="n">
-        <v>7.015127625257567</v>
+        <v>7.015127625257574</v>
       </c>
       <c r="K18" t="n">
-        <v>11.98997046465382</v>
+        <v>11.98997046465383</v>
       </c>
       <c r="L18" t="n">
-        <v>16.12199494398477</v>
+        <v>16.12199494398478</v>
       </c>
       <c r="M18" t="n">
-        <v>18.81360767425512</v>
+        <v>18.81360767425514</v>
       </c>
       <c r="N18" t="n">
-        <v>19.31154788775584</v>
+        <v>19.31154788775585</v>
       </c>
       <c r="O18" t="n">
-        <v>17.6662935001786</v>
+        <v>17.66629350017862</v>
       </c>
       <c r="P18" t="n">
-        <v>14.17875802184039</v>
+        <v>14.17875802184041</v>
       </c>
       <c r="Q18" t="n">
-        <v>9.478124247040352</v>
+        <v>9.478124247040363</v>
       </c>
       <c r="R18" t="n">
-        <v>4.610099190527188</v>
+        <v>4.610099190527192</v>
       </c>
       <c r="S18" t="n">
-        <v>1.379186922286141</v>
+        <v>1.379186922286143</v>
       </c>
       <c r="T18" t="n">
-        <v>0.2992851904559538</v>
+        <v>0.2992851904559541</v>
       </c>
       <c r="U18" t="n">
-        <v>0.004884959583067803</v>
+        <v>0.004884959583067808</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.06224986747384759</v>
+        <v>0.06224986747384766</v>
       </c>
       <c r="H19" t="n">
-        <v>0.5534579126311181</v>
+        <v>0.5534579126311187</v>
       </c>
       <c r="I19" t="n">
-        <v>1.872023287304436</v>
+        <v>1.872023287304437</v>
       </c>
       <c r="J19" t="n">
-        <v>4.401065630401025</v>
+        <v>4.401065630401029</v>
       </c>
       <c r="K19" t="n">
-        <v>7.232302784688837</v>
+        <v>7.232302784688844</v>
       </c>
       <c r="L19" t="n">
-        <v>9.254857569702761</v>
+        <v>9.25485756970277</v>
       </c>
       <c r="M19" t="n">
-        <v>9.757949680468672</v>
+        <v>9.757949680468682</v>
       </c>
       <c r="N19" t="n">
-        <v>9.525927447157066</v>
+        <v>9.525927447157075</v>
       </c>
       <c r="O19" t="n">
-        <v>8.798735813485298</v>
+        <v>8.798735813485306</v>
       </c>
       <c r="P19" t="n">
-        <v>7.528838517018801</v>
+        <v>7.528838517018809</v>
       </c>
       <c r="Q19" t="n">
-        <v>5.212577539105547</v>
+        <v>5.212577539105553</v>
       </c>
       <c r="R19" t="n">
-        <v>2.798980404778638</v>
+        <v>2.79898040477864</v>
       </c>
       <c r="S19" t="n">
-        <v>1.084845417703325</v>
+        <v>1.084845417703326</v>
       </c>
       <c r="T19" t="n">
-        <v>0.2659767064791669</v>
+        <v>0.2659767064791672</v>
       </c>
       <c r="U19" t="n">
-        <v>0.003395447316755327</v>
+        <v>0.003395447316755331</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.1387754012208205</v>
+        <v>0.1387754012208206</v>
       </c>
       <c r="H20" t="n">
-        <v>1.421233577752728</v>
+        <v>1.42123357775273</v>
       </c>
       <c r="I20" t="n">
-        <v>5.350138655565687</v>
+        <v>5.350138655565693</v>
       </c>
       <c r="J20" t="n">
-        <v>11.77838870936562</v>
+        <v>11.77838870936564</v>
       </c>
       <c r="K20" t="n">
-        <v>17.65275144304296</v>
+        <v>17.65275144304298</v>
       </c>
       <c r="L20" t="n">
-        <v>21.89979912815465</v>
+        <v>21.89979912815467</v>
       </c>
       <c r="M20" t="n">
-        <v>24.36774616961542</v>
+        <v>24.36774616961544</v>
       </c>
       <c r="N20" t="n">
-        <v>24.76204177833407</v>
+        <v>24.7620417783341</v>
       </c>
       <c r="O20" t="n">
-        <v>23.38209388244454</v>
+        <v>23.38209388244456</v>
       </c>
       <c r="P20" t="n">
-        <v>19.95607616480553</v>
+        <v>19.95607616480555</v>
       </c>
       <c r="Q20" t="n">
-        <v>14.98618210858489</v>
+        <v>14.9861821085849</v>
       </c>
       <c r="R20" t="n">
-        <v>8.717350296937372</v>
+        <v>8.717350296937383</v>
       </c>
       <c r="S20" t="n">
-        <v>3.16234445531945</v>
+        <v>3.162344455319453</v>
       </c>
       <c r="T20" t="n">
-        <v>0.607489318844142</v>
+        <v>0.6074893188441426</v>
       </c>
       <c r="U20" t="n">
-        <v>0.01110203209766564</v>
+        <v>0.01110203209766565</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.07425138566263056</v>
+        <v>0.07425138566263065</v>
       </c>
       <c r="H21" t="n">
-        <v>0.7171120667943532</v>
+        <v>0.717112066794354</v>
       </c>
       <c r="I21" t="n">
-        <v>2.556462181805482</v>
+        <v>2.556462181805485</v>
       </c>
       <c r="J21" t="n">
-        <v>7.015127625257567</v>
+        <v>7.015127625257574</v>
       </c>
       <c r="K21" t="n">
-        <v>11.98997046465382</v>
+        <v>11.98997046465383</v>
       </c>
       <c r="L21" t="n">
-        <v>16.12199494398477</v>
+        <v>16.12199494398478</v>
       </c>
       <c r="M21" t="n">
-        <v>18.81360767425512</v>
+        <v>18.81360767425514</v>
       </c>
       <c r="N21" t="n">
-        <v>19.31154788775584</v>
+        <v>19.31154788775585</v>
       </c>
       <c r="O21" t="n">
-        <v>17.6662935001786</v>
+        <v>17.66629350017862</v>
       </c>
       <c r="P21" t="n">
-        <v>14.17875802184039</v>
+        <v>14.17875802184041</v>
       </c>
       <c r="Q21" t="n">
-        <v>9.478124247040352</v>
+        <v>9.478124247040363</v>
       </c>
       <c r="R21" t="n">
-        <v>4.610099190527188</v>
+        <v>4.610099190527192</v>
       </c>
       <c r="S21" t="n">
-        <v>1.379186922286141</v>
+        <v>1.379186922286143</v>
       </c>
       <c r="T21" t="n">
-        <v>0.2992851904559538</v>
+        <v>0.2992851904559541</v>
       </c>
       <c r="U21" t="n">
-        <v>0.004884959583067803</v>
+        <v>0.004884959583067808</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.06224986747384759</v>
+        <v>0.06224986747384766</v>
       </c>
       <c r="H22" t="n">
-        <v>0.5534579126311181</v>
+        <v>0.5534579126311187</v>
       </c>
       <c r="I22" t="n">
-        <v>1.872023287304436</v>
+        <v>1.872023287304437</v>
       </c>
       <c r="J22" t="n">
-        <v>4.401065630401025</v>
+        <v>4.401065630401029</v>
       </c>
       <c r="K22" t="n">
-        <v>7.232302784688837</v>
+        <v>7.232302784688844</v>
       </c>
       <c r="L22" t="n">
-        <v>9.254857569702761</v>
+        <v>9.25485756970277</v>
       </c>
       <c r="M22" t="n">
-        <v>9.757949680468672</v>
+        <v>9.757949680468682</v>
       </c>
       <c r="N22" t="n">
-        <v>9.525927447157066</v>
+        <v>9.525927447157075</v>
       </c>
       <c r="O22" t="n">
-        <v>8.798735813485298</v>
+        <v>8.798735813485306</v>
       </c>
       <c r="P22" t="n">
-        <v>7.528838517018801</v>
+        <v>7.528838517018809</v>
       </c>
       <c r="Q22" t="n">
-        <v>5.212577539105547</v>
+        <v>5.212577539105553</v>
       </c>
       <c r="R22" t="n">
-        <v>2.798980404778638</v>
+        <v>2.79898040477864</v>
       </c>
       <c r="S22" t="n">
-        <v>1.084845417703325</v>
+        <v>1.084845417703326</v>
       </c>
       <c r="T22" t="n">
-        <v>0.2659767064791669</v>
+        <v>0.2659767064791672</v>
       </c>
       <c r="U22" t="n">
-        <v>0.003395447316755327</v>
+        <v>0.003395447316755331</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.1387754012208205</v>
+        <v>0.1387754012208206</v>
       </c>
       <c r="H23" t="n">
-        <v>1.421233577752728</v>
+        <v>1.42123357775273</v>
       </c>
       <c r="I23" t="n">
-        <v>5.350138655565687</v>
+        <v>5.350138655565693</v>
       </c>
       <c r="J23" t="n">
-        <v>11.77838870936562</v>
+        <v>11.77838870936564</v>
       </c>
       <c r="K23" t="n">
-        <v>17.65275144304296</v>
+        <v>17.65275144304298</v>
       </c>
       <c r="L23" t="n">
-        <v>21.89979912815465</v>
+        <v>21.89979912815467</v>
       </c>
       <c r="M23" t="n">
-        <v>24.36774616961542</v>
+        <v>24.36774616961544</v>
       </c>
       <c r="N23" t="n">
-        <v>24.76204177833407</v>
+        <v>24.7620417783341</v>
       </c>
       <c r="O23" t="n">
-        <v>23.38209388244454</v>
+        <v>23.38209388244456</v>
       </c>
       <c r="P23" t="n">
-        <v>19.95607616480553</v>
+        <v>19.95607616480555</v>
       </c>
       <c r="Q23" t="n">
-        <v>14.98618210858489</v>
+        <v>14.9861821085849</v>
       </c>
       <c r="R23" t="n">
-        <v>8.717350296937372</v>
+        <v>8.717350296937383</v>
       </c>
       <c r="S23" t="n">
-        <v>3.16234445531945</v>
+        <v>3.162344455319453</v>
       </c>
       <c r="T23" t="n">
-        <v>0.607489318844142</v>
+        <v>0.6074893188441426</v>
       </c>
       <c r="U23" t="n">
-        <v>0.01110203209766564</v>
+        <v>0.01110203209766565</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.07425138566263056</v>
+        <v>0.07425138566263065</v>
       </c>
       <c r="H24" t="n">
-        <v>0.7171120667943532</v>
+        <v>0.717112066794354</v>
       </c>
       <c r="I24" t="n">
-        <v>2.556462181805482</v>
+        <v>2.556462181805485</v>
       </c>
       <c r="J24" t="n">
-        <v>7.015127625257567</v>
+        <v>7.015127625257574</v>
       </c>
       <c r="K24" t="n">
-        <v>11.98997046465382</v>
+        <v>11.98997046465383</v>
       </c>
       <c r="L24" t="n">
-        <v>16.12199494398477</v>
+        <v>16.12199494398478</v>
       </c>
       <c r="M24" t="n">
-        <v>18.81360767425512</v>
+        <v>18.81360767425514</v>
       </c>
       <c r="N24" t="n">
-        <v>19.31154788775584</v>
+        <v>19.31154788775585</v>
       </c>
       <c r="O24" t="n">
-        <v>17.6662935001786</v>
+        <v>17.66629350017862</v>
       </c>
       <c r="P24" t="n">
-        <v>14.17875802184039</v>
+        <v>14.17875802184041</v>
       </c>
       <c r="Q24" t="n">
-        <v>9.478124247040352</v>
+        <v>9.478124247040363</v>
       </c>
       <c r="R24" t="n">
-        <v>4.610099190527188</v>
+        <v>4.610099190527192</v>
       </c>
       <c r="S24" t="n">
-        <v>1.379186922286141</v>
+        <v>1.379186922286143</v>
       </c>
       <c r="T24" t="n">
-        <v>0.2992851904559538</v>
+        <v>0.2992851904559541</v>
       </c>
       <c r="U24" t="n">
-        <v>0.004884959583067803</v>
+        <v>0.004884959583067808</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.06224986747384759</v>
+        <v>0.06224986747384766</v>
       </c>
       <c r="H25" t="n">
-        <v>0.5534579126311181</v>
+        <v>0.5534579126311187</v>
       </c>
       <c r="I25" t="n">
-        <v>1.872023287304436</v>
+        <v>1.872023287304437</v>
       </c>
       <c r="J25" t="n">
-        <v>4.401065630401025</v>
+        <v>4.401065630401029</v>
       </c>
       <c r="K25" t="n">
-        <v>7.232302784688837</v>
+        <v>7.232302784688844</v>
       </c>
       <c r="L25" t="n">
-        <v>9.254857569702761</v>
+        <v>9.25485756970277</v>
       </c>
       <c r="M25" t="n">
-        <v>9.757949680468672</v>
+        <v>9.757949680468682</v>
       </c>
       <c r="N25" t="n">
-        <v>9.525927447157066</v>
+        <v>9.525927447157075</v>
       </c>
       <c r="O25" t="n">
-        <v>8.798735813485298</v>
+        <v>8.798735813485306</v>
       </c>
       <c r="P25" t="n">
-        <v>7.528838517018801</v>
+        <v>7.528838517018809</v>
       </c>
       <c r="Q25" t="n">
-        <v>5.212577539105547</v>
+        <v>5.212577539105553</v>
       </c>
       <c r="R25" t="n">
-        <v>2.798980404778638</v>
+        <v>2.79898040477864</v>
       </c>
       <c r="S25" t="n">
-        <v>1.084845417703325</v>
+        <v>1.084845417703326</v>
       </c>
       <c r="T25" t="n">
-        <v>0.2659767064791669</v>
+        <v>0.2659767064791672</v>
       </c>
       <c r="U25" t="n">
-        <v>0.003395447316755327</v>
+        <v>0.003395447316755331</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.1387754012208205</v>
+        <v>0.1387754012208206</v>
       </c>
       <c r="H26" t="n">
-        <v>1.421233577752728</v>
+        <v>1.42123357775273</v>
       </c>
       <c r="I26" t="n">
-        <v>5.350138655565687</v>
+        <v>5.350138655565693</v>
       </c>
       <c r="J26" t="n">
-        <v>11.77838870936562</v>
+        <v>11.77838870936564</v>
       </c>
       <c r="K26" t="n">
-        <v>17.65275144304296</v>
+        <v>17.65275144304298</v>
       </c>
       <c r="L26" t="n">
-        <v>21.89979912815465</v>
+        <v>21.89979912815467</v>
       </c>
       <c r="M26" t="n">
-        <v>24.36774616961542</v>
+        <v>24.36774616961544</v>
       </c>
       <c r="N26" t="n">
-        <v>24.76204177833407</v>
+        <v>24.7620417783341</v>
       </c>
       <c r="O26" t="n">
-        <v>23.38209388244454</v>
+        <v>23.38209388244456</v>
       </c>
       <c r="P26" t="n">
-        <v>19.95607616480553</v>
+        <v>19.95607616480555</v>
       </c>
       <c r="Q26" t="n">
-        <v>14.98618210858489</v>
+        <v>14.9861821085849</v>
       </c>
       <c r="R26" t="n">
-        <v>8.717350296937372</v>
+        <v>8.717350296937383</v>
       </c>
       <c r="S26" t="n">
-        <v>3.16234445531945</v>
+        <v>3.162344455319453</v>
       </c>
       <c r="T26" t="n">
-        <v>0.607489318844142</v>
+        <v>0.6074893188441426</v>
       </c>
       <c r="U26" t="n">
-        <v>0.01110203209766564</v>
+        <v>0.01110203209766565</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.07425138566263056</v>
+        <v>0.07425138566263065</v>
       </c>
       <c r="H27" t="n">
-        <v>0.7171120667943532</v>
+        <v>0.717112066794354</v>
       </c>
       <c r="I27" t="n">
-        <v>2.556462181805482</v>
+        <v>2.556462181805485</v>
       </c>
       <c r="J27" t="n">
-        <v>7.015127625257567</v>
+        <v>7.015127625257574</v>
       </c>
       <c r="K27" t="n">
-        <v>11.98997046465382</v>
+        <v>11.98997046465383</v>
       </c>
       <c r="L27" t="n">
-        <v>16.12199494398477</v>
+        <v>16.12199494398478</v>
       </c>
       <c r="M27" t="n">
-        <v>18.81360767425512</v>
+        <v>18.81360767425514</v>
       </c>
       <c r="N27" t="n">
-        <v>19.31154788775584</v>
+        <v>19.31154788775585</v>
       </c>
       <c r="O27" t="n">
-        <v>17.6662935001786</v>
+        <v>17.66629350017862</v>
       </c>
       <c r="P27" t="n">
-        <v>14.17875802184039</v>
+        <v>14.17875802184041</v>
       </c>
       <c r="Q27" t="n">
-        <v>9.478124247040352</v>
+        <v>9.478124247040363</v>
       </c>
       <c r="R27" t="n">
-        <v>4.610099190527188</v>
+        <v>4.610099190527192</v>
       </c>
       <c r="S27" t="n">
-        <v>1.379186922286141</v>
+        <v>1.379186922286143</v>
       </c>
       <c r="T27" t="n">
-        <v>0.2992851904559538</v>
+        <v>0.2992851904559541</v>
       </c>
       <c r="U27" t="n">
-        <v>0.004884959583067803</v>
+        <v>0.004884959583067808</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.06224986747384759</v>
+        <v>0.06224986747384766</v>
       </c>
       <c r="H28" t="n">
-        <v>0.5534579126311181</v>
+        <v>0.5534579126311187</v>
       </c>
       <c r="I28" t="n">
-        <v>1.872023287304436</v>
+        <v>1.872023287304437</v>
       </c>
       <c r="J28" t="n">
-        <v>4.401065630401025</v>
+        <v>4.401065630401029</v>
       </c>
       <c r="K28" t="n">
-        <v>7.232302784688837</v>
+        <v>7.232302784688844</v>
       </c>
       <c r="L28" t="n">
-        <v>9.254857569702761</v>
+        <v>9.25485756970277</v>
       </c>
       <c r="M28" t="n">
-        <v>9.757949680468672</v>
+        <v>9.757949680468682</v>
       </c>
       <c r="N28" t="n">
-        <v>9.525927447157066</v>
+        <v>9.525927447157075</v>
       </c>
       <c r="O28" t="n">
-        <v>8.798735813485298</v>
+        <v>8.798735813485306</v>
       </c>
       <c r="P28" t="n">
-        <v>7.528838517018801</v>
+        <v>7.528838517018809</v>
       </c>
       <c r="Q28" t="n">
-        <v>5.212577539105547</v>
+        <v>5.212577539105553</v>
       </c>
       <c r="R28" t="n">
-        <v>2.798980404778638</v>
+        <v>2.79898040477864</v>
       </c>
       <c r="S28" t="n">
-        <v>1.084845417703325</v>
+        <v>1.084845417703326</v>
       </c>
       <c r="T28" t="n">
-        <v>0.2659767064791669</v>
+        <v>0.2659767064791672</v>
       </c>
       <c r="U28" t="n">
-        <v>0.003395447316755327</v>
+        <v>0.003395447316755331</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.1387754012208205</v>
+        <v>0.1387754012208206</v>
       </c>
       <c r="H29" t="n">
-        <v>1.421233577752728</v>
+        <v>1.42123357775273</v>
       </c>
       <c r="I29" t="n">
-        <v>5.350138655565687</v>
+        <v>5.350138655565693</v>
       </c>
       <c r="J29" t="n">
-        <v>11.77838870936562</v>
+        <v>11.77838870936564</v>
       </c>
       <c r="K29" t="n">
-        <v>17.65275144304296</v>
+        <v>17.65275144304298</v>
       </c>
       <c r="L29" t="n">
-        <v>21.89979912815465</v>
+        <v>21.89979912815467</v>
       </c>
       <c r="M29" t="n">
-        <v>24.36774616961542</v>
+        <v>24.36774616961544</v>
       </c>
       <c r="N29" t="n">
-        <v>24.76204177833407</v>
+        <v>24.7620417783341</v>
       </c>
       <c r="O29" t="n">
-        <v>23.38209388244454</v>
+        <v>23.38209388244456</v>
       </c>
       <c r="P29" t="n">
-        <v>19.95607616480553</v>
+        <v>19.95607616480555</v>
       </c>
       <c r="Q29" t="n">
-        <v>14.98618210858489</v>
+        <v>14.9861821085849</v>
       </c>
       <c r="R29" t="n">
-        <v>8.717350296937372</v>
+        <v>8.717350296937383</v>
       </c>
       <c r="S29" t="n">
-        <v>3.16234445531945</v>
+        <v>3.162344455319453</v>
       </c>
       <c r="T29" t="n">
-        <v>0.607489318844142</v>
+        <v>0.6074893188441426</v>
       </c>
       <c r="U29" t="n">
-        <v>0.01110203209766564</v>
+        <v>0.01110203209766565</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.07425138566263056</v>
+        <v>0.07425138566263065</v>
       </c>
       <c r="H30" t="n">
-        <v>0.7171120667943532</v>
+        <v>0.717112066794354</v>
       </c>
       <c r="I30" t="n">
-        <v>2.556462181805482</v>
+        <v>2.556462181805485</v>
       </c>
       <c r="J30" t="n">
-        <v>7.015127625257567</v>
+        <v>7.015127625257574</v>
       </c>
       <c r="K30" t="n">
-        <v>11.98997046465382</v>
+        <v>11.98997046465383</v>
       </c>
       <c r="L30" t="n">
-        <v>16.12199494398477</v>
+        <v>16.12199494398478</v>
       </c>
       <c r="M30" t="n">
-        <v>18.81360767425512</v>
+        <v>18.81360767425514</v>
       </c>
       <c r="N30" t="n">
-        <v>19.31154788775584</v>
+        <v>19.31154788775585</v>
       </c>
       <c r="O30" t="n">
-        <v>17.6662935001786</v>
+        <v>17.66629350017862</v>
       </c>
       <c r="P30" t="n">
-        <v>14.17875802184039</v>
+        <v>14.17875802184041</v>
       </c>
       <c r="Q30" t="n">
-        <v>9.478124247040352</v>
+        <v>9.478124247040363</v>
       </c>
       <c r="R30" t="n">
-        <v>4.610099190527188</v>
+        <v>4.610099190527192</v>
       </c>
       <c r="S30" t="n">
-        <v>1.379186922286141</v>
+        <v>1.379186922286143</v>
       </c>
       <c r="T30" t="n">
-        <v>0.2992851904559538</v>
+        <v>0.2992851904559541</v>
       </c>
       <c r="U30" t="n">
-        <v>0.004884959583067803</v>
+        <v>0.004884959583067808</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.06224986747384759</v>
+        <v>0.06224986747384766</v>
       </c>
       <c r="H31" t="n">
-        <v>0.5534579126311181</v>
+        <v>0.5534579126311187</v>
       </c>
       <c r="I31" t="n">
-        <v>1.872023287304436</v>
+        <v>1.872023287304437</v>
       </c>
       <c r="J31" t="n">
-        <v>4.401065630401025</v>
+        <v>4.401065630401029</v>
       </c>
       <c r="K31" t="n">
-        <v>7.232302784688837</v>
+        <v>7.232302784688844</v>
       </c>
       <c r="L31" t="n">
-        <v>9.254857569702761</v>
+        <v>9.25485756970277</v>
       </c>
       <c r="M31" t="n">
-        <v>9.757949680468672</v>
+        <v>9.757949680468682</v>
       </c>
       <c r="N31" t="n">
-        <v>9.525927447157066</v>
+        <v>9.525927447157075</v>
       </c>
       <c r="O31" t="n">
-        <v>8.798735813485298</v>
+        <v>8.798735813485306</v>
       </c>
       <c r="P31" t="n">
-        <v>7.528838517018801</v>
+        <v>7.528838517018809</v>
       </c>
       <c r="Q31" t="n">
-        <v>5.212577539105547</v>
+        <v>5.212577539105553</v>
       </c>
       <c r="R31" t="n">
-        <v>2.798980404778638</v>
+        <v>2.79898040477864</v>
       </c>
       <c r="S31" t="n">
-        <v>1.084845417703325</v>
+        <v>1.084845417703326</v>
       </c>
       <c r="T31" t="n">
-        <v>0.2659767064791669</v>
+        <v>0.2659767064791672</v>
       </c>
       <c r="U31" t="n">
-        <v>0.003395447316755327</v>
+        <v>0.003395447316755331</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.1387754012208205</v>
+        <v>0.1387754012208206</v>
       </c>
       <c r="H32" t="n">
-        <v>1.421233577752728</v>
+        <v>1.42123357775273</v>
       </c>
       <c r="I32" t="n">
-        <v>5.350138655565687</v>
+        <v>5.350138655565693</v>
       </c>
       <c r="J32" t="n">
-        <v>11.77838870936562</v>
+        <v>11.77838870936564</v>
       </c>
       <c r="K32" t="n">
-        <v>17.65275144304296</v>
+        <v>17.65275144304298</v>
       </c>
       <c r="L32" t="n">
-        <v>21.89979912815465</v>
+        <v>21.89979912815467</v>
       </c>
       <c r="M32" t="n">
-        <v>24.36774616961542</v>
+        <v>24.36774616961544</v>
       </c>
       <c r="N32" t="n">
-        <v>24.76204177833407</v>
+        <v>24.7620417783341</v>
       </c>
       <c r="O32" t="n">
-        <v>23.38209388244454</v>
+        <v>23.38209388244456</v>
       </c>
       <c r="P32" t="n">
-        <v>19.95607616480553</v>
+        <v>19.95607616480555</v>
       </c>
       <c r="Q32" t="n">
-        <v>14.98618210858489</v>
+        <v>14.9861821085849</v>
       </c>
       <c r="R32" t="n">
-        <v>8.717350296937372</v>
+        <v>8.717350296937383</v>
       </c>
       <c r="S32" t="n">
-        <v>3.16234445531945</v>
+        <v>3.162344455319453</v>
       </c>
       <c r="T32" t="n">
-        <v>0.607489318844142</v>
+        <v>0.6074893188441426</v>
       </c>
       <c r="U32" t="n">
-        <v>0.01110203209766564</v>
+        <v>0.01110203209766565</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.07425138566263056</v>
+        <v>0.07425138566263065</v>
       </c>
       <c r="H33" t="n">
-        <v>0.7171120667943532</v>
+        <v>0.717112066794354</v>
       </c>
       <c r="I33" t="n">
-        <v>2.556462181805482</v>
+        <v>2.556462181805485</v>
       </c>
       <c r="J33" t="n">
-        <v>7.015127625257567</v>
+        <v>7.015127625257574</v>
       </c>
       <c r="K33" t="n">
-        <v>11.98997046465382</v>
+        <v>11.98997046465383</v>
       </c>
       <c r="L33" t="n">
-        <v>16.12199494398477</v>
+        <v>16.12199494398478</v>
       </c>
       <c r="M33" t="n">
-        <v>18.81360767425512</v>
+        <v>18.81360767425514</v>
       </c>
       <c r="N33" t="n">
-        <v>19.31154788775584</v>
+        <v>19.31154788775585</v>
       </c>
       <c r="O33" t="n">
-        <v>17.6662935001786</v>
+        <v>17.66629350017862</v>
       </c>
       <c r="P33" t="n">
-        <v>14.17875802184039</v>
+        <v>14.17875802184041</v>
       </c>
       <c r="Q33" t="n">
-        <v>9.478124247040352</v>
+        <v>9.478124247040363</v>
       </c>
       <c r="R33" t="n">
-        <v>4.610099190527188</v>
+        <v>4.610099190527192</v>
       </c>
       <c r="S33" t="n">
-        <v>1.379186922286141</v>
+        <v>1.379186922286143</v>
       </c>
       <c r="T33" t="n">
-        <v>0.2992851904559538</v>
+        <v>0.2992851904559541</v>
       </c>
       <c r="U33" t="n">
-        <v>0.004884959583067803</v>
+        <v>0.004884959583067808</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.06224986747384759</v>
+        <v>0.06224986747384766</v>
       </c>
       <c r="H34" t="n">
-        <v>0.5534579126311181</v>
+        <v>0.5534579126311187</v>
       </c>
       <c r="I34" t="n">
-        <v>1.872023287304436</v>
+        <v>1.872023287304437</v>
       </c>
       <c r="J34" t="n">
-        <v>4.401065630401025</v>
+        <v>4.401065630401029</v>
       </c>
       <c r="K34" t="n">
-        <v>7.232302784688837</v>
+        <v>7.232302784688844</v>
       </c>
       <c r="L34" t="n">
-        <v>9.254857569702761</v>
+        <v>9.25485756970277</v>
       </c>
       <c r="M34" t="n">
-        <v>9.757949680468672</v>
+        <v>9.757949680468682</v>
       </c>
       <c r="N34" t="n">
-        <v>9.525927447157066</v>
+        <v>9.525927447157075</v>
       </c>
       <c r="O34" t="n">
-        <v>8.798735813485298</v>
+        <v>8.798735813485306</v>
       </c>
       <c r="P34" t="n">
-        <v>7.528838517018801</v>
+        <v>7.528838517018809</v>
       </c>
       <c r="Q34" t="n">
-        <v>5.212577539105547</v>
+        <v>5.212577539105553</v>
       </c>
       <c r="R34" t="n">
-        <v>2.798980404778638</v>
+        <v>2.79898040477864</v>
       </c>
       <c r="S34" t="n">
-        <v>1.084845417703325</v>
+        <v>1.084845417703326</v>
       </c>
       <c r="T34" t="n">
-        <v>0.2659767064791669</v>
+        <v>0.2659767064791672</v>
       </c>
       <c r="U34" t="n">
-        <v>0.003395447316755327</v>
+        <v>0.003395447316755331</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.1387754012208205</v>
+        <v>0.1387754012208206</v>
       </c>
       <c r="H35" t="n">
-        <v>1.421233577752728</v>
+        <v>1.42123357775273</v>
       </c>
       <c r="I35" t="n">
-        <v>5.350138655565687</v>
+        <v>5.350138655565693</v>
       </c>
       <c r="J35" t="n">
-        <v>11.77838870936562</v>
+        <v>11.77838870936564</v>
       </c>
       <c r="K35" t="n">
-        <v>17.65275144304296</v>
+        <v>17.65275144304298</v>
       </c>
       <c r="L35" t="n">
-        <v>21.89979912815465</v>
+        <v>21.89979912815467</v>
       </c>
       <c r="M35" t="n">
-        <v>24.36774616961542</v>
+        <v>24.36774616961544</v>
       </c>
       <c r="N35" t="n">
-        <v>24.76204177833407</v>
+        <v>24.7620417783341</v>
       </c>
       <c r="O35" t="n">
-        <v>23.38209388244454</v>
+        <v>23.38209388244456</v>
       </c>
       <c r="P35" t="n">
-        <v>19.95607616480553</v>
+        <v>19.95607616480555</v>
       </c>
       <c r="Q35" t="n">
-        <v>14.98618210858489</v>
+        <v>14.9861821085849</v>
       </c>
       <c r="R35" t="n">
-        <v>8.717350296937372</v>
+        <v>8.717350296937383</v>
       </c>
       <c r="S35" t="n">
-        <v>3.16234445531945</v>
+        <v>3.162344455319453</v>
       </c>
       <c r="T35" t="n">
-        <v>0.607489318844142</v>
+        <v>0.6074893188441426</v>
       </c>
       <c r="U35" t="n">
-        <v>0.01110203209766564</v>
+        <v>0.01110203209766565</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.07425138566263056</v>
+        <v>0.07425138566263065</v>
       </c>
       <c r="H36" t="n">
-        <v>0.7171120667943532</v>
+        <v>0.717112066794354</v>
       </c>
       <c r="I36" t="n">
-        <v>2.556462181805482</v>
+        <v>2.556462181805485</v>
       </c>
       <c r="J36" t="n">
-        <v>7.015127625257567</v>
+        <v>7.015127625257574</v>
       </c>
       <c r="K36" t="n">
-        <v>11.98997046465382</v>
+        <v>11.98997046465383</v>
       </c>
       <c r="L36" t="n">
-        <v>16.12199494398477</v>
+        <v>16.12199494398478</v>
       </c>
       <c r="M36" t="n">
-        <v>18.81360767425512</v>
+        <v>18.81360767425514</v>
       </c>
       <c r="N36" t="n">
-        <v>19.31154788775584</v>
+        <v>19.31154788775585</v>
       </c>
       <c r="O36" t="n">
-        <v>17.6662935001786</v>
+        <v>17.66629350017862</v>
       </c>
       <c r="P36" t="n">
-        <v>14.17875802184039</v>
+        <v>14.17875802184041</v>
       </c>
       <c r="Q36" t="n">
-        <v>9.478124247040352</v>
+        <v>9.478124247040363</v>
       </c>
       <c r="R36" t="n">
-        <v>4.610099190527188</v>
+        <v>4.610099190527192</v>
       </c>
       <c r="S36" t="n">
-        <v>1.379186922286141</v>
+        <v>1.379186922286143</v>
       </c>
       <c r="T36" t="n">
-        <v>0.2992851904559538</v>
+        <v>0.2992851904559541</v>
       </c>
       <c r="U36" t="n">
-        <v>0.004884959583067803</v>
+        <v>0.004884959583067808</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.06224986747384759</v>
+        <v>0.06224986747384766</v>
       </c>
       <c r="H37" t="n">
-        <v>0.5534579126311181</v>
+        <v>0.5534579126311187</v>
       </c>
       <c r="I37" t="n">
-        <v>1.872023287304436</v>
+        <v>1.872023287304437</v>
       </c>
       <c r="J37" t="n">
-        <v>4.401065630401025</v>
+        <v>4.401065630401029</v>
       </c>
       <c r="K37" t="n">
-        <v>7.232302784688837</v>
+        <v>7.232302784688844</v>
       </c>
       <c r="L37" t="n">
-        <v>9.254857569702761</v>
+        <v>9.25485756970277</v>
       </c>
       <c r="M37" t="n">
-        <v>9.757949680468672</v>
+        <v>9.757949680468682</v>
       </c>
       <c r="N37" t="n">
-        <v>9.525927447157066</v>
+        <v>9.525927447157075</v>
       </c>
       <c r="O37" t="n">
-        <v>8.798735813485298</v>
+        <v>8.798735813485306</v>
       </c>
       <c r="P37" t="n">
-        <v>7.528838517018801</v>
+        <v>7.528838517018809</v>
       </c>
       <c r="Q37" t="n">
-        <v>5.212577539105547</v>
+        <v>5.212577539105553</v>
       </c>
       <c r="R37" t="n">
-        <v>2.798980404778638</v>
+        <v>2.79898040477864</v>
       </c>
       <c r="S37" t="n">
-        <v>1.084845417703325</v>
+        <v>1.084845417703326</v>
       </c>
       <c r="T37" t="n">
-        <v>0.2659767064791669</v>
+        <v>0.2659767064791672</v>
       </c>
       <c r="U37" t="n">
-        <v>0.003395447316755327</v>
+        <v>0.003395447316755331</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.1387754012208205</v>
+        <v>0.1387754012208206</v>
       </c>
       <c r="H38" t="n">
-        <v>1.421233577752728</v>
+        <v>1.42123357775273</v>
       </c>
       <c r="I38" t="n">
-        <v>5.350138655565687</v>
+        <v>5.350138655565693</v>
       </c>
       <c r="J38" t="n">
-        <v>11.77838870936562</v>
+        <v>11.77838870936564</v>
       </c>
       <c r="K38" t="n">
-        <v>17.65275144304296</v>
+        <v>17.65275144304298</v>
       </c>
       <c r="L38" t="n">
-        <v>21.89979912815465</v>
+        <v>21.89979912815467</v>
       </c>
       <c r="M38" t="n">
-        <v>24.36774616961542</v>
+        <v>24.36774616961544</v>
       </c>
       <c r="N38" t="n">
-        <v>24.76204177833407</v>
+        <v>24.7620417783341</v>
       </c>
       <c r="O38" t="n">
-        <v>23.38209388244454</v>
+        <v>23.38209388244456</v>
       </c>
       <c r="P38" t="n">
-        <v>19.95607616480553</v>
+        <v>19.95607616480555</v>
       </c>
       <c r="Q38" t="n">
-        <v>14.98618210858489</v>
+        <v>14.9861821085849</v>
       </c>
       <c r="R38" t="n">
-        <v>8.717350296937372</v>
+        <v>8.717350296937383</v>
       </c>
       <c r="S38" t="n">
-        <v>3.16234445531945</v>
+        <v>3.162344455319453</v>
       </c>
       <c r="T38" t="n">
-        <v>0.607489318844142</v>
+        <v>0.6074893188441426</v>
       </c>
       <c r="U38" t="n">
-        <v>0.01110203209766564</v>
+        <v>0.01110203209766565</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.07425138566263056</v>
+        <v>0.07425138566263065</v>
       </c>
       <c r="H39" t="n">
-        <v>0.7171120667943532</v>
+        <v>0.717112066794354</v>
       </c>
       <c r="I39" t="n">
-        <v>2.556462181805482</v>
+        <v>2.556462181805485</v>
       </c>
       <c r="J39" t="n">
-        <v>7.015127625257567</v>
+        <v>7.015127625257574</v>
       </c>
       <c r="K39" t="n">
-        <v>11.98997046465382</v>
+        <v>11.98997046465383</v>
       </c>
       <c r="L39" t="n">
-        <v>16.12199494398477</v>
+        <v>16.12199494398478</v>
       </c>
       <c r="M39" t="n">
-        <v>18.81360767425512</v>
+        <v>18.81360767425514</v>
       </c>
       <c r="N39" t="n">
-        <v>19.31154788775584</v>
+        <v>19.31154788775585</v>
       </c>
       <c r="O39" t="n">
-        <v>17.6662935001786</v>
+        <v>17.66629350017862</v>
       </c>
       <c r="P39" t="n">
-        <v>14.17875802184039</v>
+        <v>14.17875802184041</v>
       </c>
       <c r="Q39" t="n">
-        <v>9.478124247040352</v>
+        <v>9.478124247040363</v>
       </c>
       <c r="R39" t="n">
-        <v>4.610099190527188</v>
+        <v>4.610099190527192</v>
       </c>
       <c r="S39" t="n">
-        <v>1.379186922286141</v>
+        <v>1.379186922286143</v>
       </c>
       <c r="T39" t="n">
-        <v>0.2992851904559538</v>
+        <v>0.2992851904559541</v>
       </c>
       <c r="U39" t="n">
-        <v>0.004884959583067803</v>
+        <v>0.004884959583067808</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.06224986747384759</v>
+        <v>0.06224986747384766</v>
       </c>
       <c r="H40" t="n">
-        <v>0.5534579126311181</v>
+        <v>0.5534579126311187</v>
       </c>
       <c r="I40" t="n">
-        <v>1.872023287304436</v>
+        <v>1.872023287304437</v>
       </c>
       <c r="J40" t="n">
-        <v>4.401065630401025</v>
+        <v>4.401065630401029</v>
       </c>
       <c r="K40" t="n">
-        <v>7.232302784688837</v>
+        <v>7.232302784688844</v>
       </c>
       <c r="L40" t="n">
-        <v>9.254857569702761</v>
+        <v>9.25485756970277</v>
       </c>
       <c r="M40" t="n">
-        <v>9.757949680468672</v>
+        <v>9.757949680468682</v>
       </c>
       <c r="N40" t="n">
-        <v>9.525927447157066</v>
+        <v>9.525927447157075</v>
       </c>
       <c r="O40" t="n">
-        <v>8.798735813485298</v>
+        <v>8.798735813485306</v>
       </c>
       <c r="P40" t="n">
-        <v>7.528838517018801</v>
+        <v>7.528838517018809</v>
       </c>
       <c r="Q40" t="n">
-        <v>5.212577539105547</v>
+        <v>5.212577539105553</v>
       </c>
       <c r="R40" t="n">
-        <v>2.798980404778638</v>
+        <v>2.79898040477864</v>
       </c>
       <c r="S40" t="n">
-        <v>1.084845417703325</v>
+        <v>1.084845417703326</v>
       </c>
       <c r="T40" t="n">
-        <v>0.2659767064791669</v>
+        <v>0.2659767064791672</v>
       </c>
       <c r="U40" t="n">
-        <v>0.003395447316755327</v>
+        <v>0.003395447316755331</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.1387754012208205</v>
+        <v>0.1387754012208206</v>
       </c>
       <c r="H41" t="n">
-        <v>1.421233577752728</v>
+        <v>1.42123357775273</v>
       </c>
       <c r="I41" t="n">
-        <v>5.350138655565687</v>
+        <v>5.350138655565693</v>
       </c>
       <c r="J41" t="n">
-        <v>11.77838870936562</v>
+        <v>11.77838870936564</v>
       </c>
       <c r="K41" t="n">
-        <v>17.65275144304296</v>
+        <v>17.65275144304298</v>
       </c>
       <c r="L41" t="n">
-        <v>21.89979912815465</v>
+        <v>21.89979912815467</v>
       </c>
       <c r="M41" t="n">
-        <v>24.36774616961542</v>
+        <v>24.36774616961544</v>
       </c>
       <c r="N41" t="n">
-        <v>24.76204177833407</v>
+        <v>24.7620417783341</v>
       </c>
       <c r="O41" t="n">
-        <v>23.38209388244454</v>
+        <v>23.38209388244456</v>
       </c>
       <c r="P41" t="n">
-        <v>19.95607616480553</v>
+        <v>19.95607616480555</v>
       </c>
       <c r="Q41" t="n">
-        <v>14.98618210858489</v>
+        <v>14.9861821085849</v>
       </c>
       <c r="R41" t="n">
-        <v>8.717350296937372</v>
+        <v>8.717350296937383</v>
       </c>
       <c r="S41" t="n">
-        <v>3.16234445531945</v>
+        <v>3.162344455319453</v>
       </c>
       <c r="T41" t="n">
-        <v>0.607489318844142</v>
+        <v>0.6074893188441426</v>
       </c>
       <c r="U41" t="n">
-        <v>0.01110203209766564</v>
+        <v>0.01110203209766565</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.07425138566263056</v>
+        <v>0.07425138566263065</v>
       </c>
       <c r="H42" t="n">
-        <v>0.7171120667943532</v>
+        <v>0.717112066794354</v>
       </c>
       <c r="I42" t="n">
-        <v>2.556462181805482</v>
+        <v>2.556462181805485</v>
       </c>
       <c r="J42" t="n">
-        <v>7.015127625257567</v>
+        <v>7.015127625257574</v>
       </c>
       <c r="K42" t="n">
-        <v>11.98997046465382</v>
+        <v>11.98997046465383</v>
       </c>
       <c r="L42" t="n">
-        <v>16.12199494398477</v>
+        <v>16.12199494398478</v>
       </c>
       <c r="M42" t="n">
-        <v>18.81360767425512</v>
+        <v>18.81360767425514</v>
       </c>
       <c r="N42" t="n">
-        <v>19.31154788775584</v>
+        <v>19.31154788775585</v>
       </c>
       <c r="O42" t="n">
-        <v>17.6662935001786</v>
+        <v>17.66629350017862</v>
       </c>
       <c r="P42" t="n">
-        <v>14.17875802184039</v>
+        <v>14.17875802184041</v>
       </c>
       <c r="Q42" t="n">
-        <v>9.478124247040352</v>
+        <v>9.478124247040363</v>
       </c>
       <c r="R42" t="n">
-        <v>4.610099190527188</v>
+        <v>4.610099190527192</v>
       </c>
       <c r="S42" t="n">
-        <v>1.379186922286141</v>
+        <v>1.379186922286143</v>
       </c>
       <c r="T42" t="n">
-        <v>0.2992851904559538</v>
+        <v>0.2992851904559541</v>
       </c>
       <c r="U42" t="n">
-        <v>0.004884959583067803</v>
+        <v>0.004884959583067808</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.06224986747384759</v>
+        <v>0.06224986747384766</v>
       </c>
       <c r="H43" t="n">
-        <v>0.5534579126311181</v>
+        <v>0.5534579126311187</v>
       </c>
       <c r="I43" t="n">
-        <v>1.872023287304436</v>
+        <v>1.872023287304437</v>
       </c>
       <c r="J43" t="n">
-        <v>4.401065630401025</v>
+        <v>4.401065630401029</v>
       </c>
       <c r="K43" t="n">
-        <v>7.232302784688837</v>
+        <v>7.232302784688844</v>
       </c>
       <c r="L43" t="n">
-        <v>9.254857569702761</v>
+        <v>9.25485756970277</v>
       </c>
       <c r="M43" t="n">
-        <v>9.757949680468672</v>
+        <v>9.757949680468682</v>
       </c>
       <c r="N43" t="n">
-        <v>9.525927447157066</v>
+        <v>9.525927447157075</v>
       </c>
       <c r="O43" t="n">
-        <v>8.798735813485298</v>
+        <v>8.798735813485306</v>
       </c>
       <c r="P43" t="n">
-        <v>7.528838517018801</v>
+        <v>7.528838517018809</v>
       </c>
       <c r="Q43" t="n">
-        <v>5.212577539105547</v>
+        <v>5.212577539105553</v>
       </c>
       <c r="R43" t="n">
-        <v>2.798980404778638</v>
+        <v>2.79898040477864</v>
       </c>
       <c r="S43" t="n">
-        <v>1.084845417703325</v>
+        <v>1.084845417703326</v>
       </c>
       <c r="T43" t="n">
-        <v>0.2659767064791669</v>
+        <v>0.2659767064791672</v>
       </c>
       <c r="U43" t="n">
-        <v>0.003395447316755327</v>
+        <v>0.003395447316755331</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.1387754012208205</v>
+        <v>0.1387754012208206</v>
       </c>
       <c r="H44" t="n">
-        <v>1.421233577752728</v>
+        <v>1.42123357775273</v>
       </c>
       <c r="I44" t="n">
-        <v>5.350138655565687</v>
+        <v>5.350138655565693</v>
       </c>
       <c r="J44" t="n">
-        <v>11.77838870936562</v>
+        <v>11.77838870936564</v>
       </c>
       <c r="K44" t="n">
-        <v>17.65275144304296</v>
+        <v>17.65275144304298</v>
       </c>
       <c r="L44" t="n">
-        <v>21.89979912815465</v>
+        <v>21.89979912815467</v>
       </c>
       <c r="M44" t="n">
-        <v>24.36774616961542</v>
+        <v>24.36774616961544</v>
       </c>
       <c r="N44" t="n">
-        <v>24.76204177833407</v>
+        <v>24.7620417783341</v>
       </c>
       <c r="O44" t="n">
-        <v>23.38209388244454</v>
+        <v>23.38209388244456</v>
       </c>
       <c r="P44" t="n">
-        <v>19.95607616480553</v>
+        <v>19.95607616480555</v>
       </c>
       <c r="Q44" t="n">
-        <v>14.98618210858489</v>
+        <v>14.9861821085849</v>
       </c>
       <c r="R44" t="n">
-        <v>8.717350296937372</v>
+        <v>8.717350296937383</v>
       </c>
       <c r="S44" t="n">
-        <v>3.16234445531945</v>
+        <v>3.162344455319453</v>
       </c>
       <c r="T44" t="n">
-        <v>0.607489318844142</v>
+        <v>0.6074893188441426</v>
       </c>
       <c r="U44" t="n">
-        <v>0.01110203209766564</v>
+        <v>0.01110203209766565</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.07425138566263056</v>
+        <v>0.07425138566263065</v>
       </c>
       <c r="H45" t="n">
-        <v>0.7171120667943532</v>
+        <v>0.717112066794354</v>
       </c>
       <c r="I45" t="n">
-        <v>2.556462181805482</v>
+        <v>2.556462181805485</v>
       </c>
       <c r="J45" t="n">
-        <v>7.015127625257567</v>
+        <v>7.015127625257574</v>
       </c>
       <c r="K45" t="n">
-        <v>11.98997046465382</v>
+        <v>11.98997046465383</v>
       </c>
       <c r="L45" t="n">
-        <v>16.12199494398477</v>
+        <v>16.12199494398478</v>
       </c>
       <c r="M45" t="n">
-        <v>18.81360767425512</v>
+        <v>18.81360767425514</v>
       </c>
       <c r="N45" t="n">
-        <v>19.31154788775584</v>
+        <v>19.31154788775585</v>
       </c>
       <c r="O45" t="n">
-        <v>17.6662935001786</v>
+        <v>17.66629350017862</v>
       </c>
       <c r="P45" t="n">
-        <v>14.17875802184039</v>
+        <v>14.17875802184041</v>
       </c>
       <c r="Q45" t="n">
-        <v>9.478124247040352</v>
+        <v>9.478124247040363</v>
       </c>
       <c r="R45" t="n">
-        <v>4.610099190527188</v>
+        <v>4.610099190527192</v>
       </c>
       <c r="S45" t="n">
-        <v>1.379186922286141</v>
+        <v>1.379186922286143</v>
       </c>
       <c r="T45" t="n">
-        <v>0.2992851904559538</v>
+        <v>0.2992851904559541</v>
       </c>
       <c r="U45" t="n">
-        <v>0.004884959583067803</v>
+        <v>0.004884959583067808</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.06224986747384759</v>
+        <v>0.06224986747384766</v>
       </c>
       <c r="H46" t="n">
-        <v>0.5534579126311181</v>
+        <v>0.5534579126311187</v>
       </c>
       <c r="I46" t="n">
-        <v>1.872023287304436</v>
+        <v>1.872023287304437</v>
       </c>
       <c r="J46" t="n">
-        <v>4.401065630401025</v>
+        <v>4.401065630401029</v>
       </c>
       <c r="K46" t="n">
-        <v>7.232302784688837</v>
+        <v>7.232302784688844</v>
       </c>
       <c r="L46" t="n">
-        <v>9.254857569702761</v>
+        <v>9.25485756970277</v>
       </c>
       <c r="M46" t="n">
-        <v>9.757949680468672</v>
+        <v>9.757949680468682</v>
       </c>
       <c r="N46" t="n">
-        <v>9.525927447157066</v>
+        <v>9.525927447157075</v>
       </c>
       <c r="O46" t="n">
-        <v>8.798735813485298</v>
+        <v>8.798735813485306</v>
       </c>
       <c r="P46" t="n">
-        <v>7.528838517018801</v>
+        <v>7.528838517018809</v>
       </c>
       <c r="Q46" t="n">
-        <v>5.212577539105547</v>
+        <v>5.212577539105553</v>
       </c>
       <c r="R46" t="n">
-        <v>2.798980404778638</v>
+        <v>2.79898040477864</v>
       </c>
       <c r="S46" t="n">
-        <v>1.084845417703325</v>
+        <v>1.084845417703326</v>
       </c>
       <c r="T46" t="n">
-        <v>0.2659767064791669</v>
+        <v>0.2659767064791672</v>
       </c>
       <c r="U46" t="n">
-        <v>0.003395447316755327</v>
+        <v>0.003395447316755331</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,7 +34698,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -34707,13 +34707,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>424.2958575201043</v>
       </c>
       <c r="P2" t="n">
         <v>424.2958575201044</v>
@@ -34780,22 +34780,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>358.9284720888815</v>
+      </c>
+      <c r="P3" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>358.9284720888814</v>
       </c>
       <c r="Q3" t="n">
         <v>424.2958575201044</v>
@@ -34862,22 +34862,22 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>115.4433635180153</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201044</v>
+        <v>370.2350542247758</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,7 +34935,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -34944,7 +34944,7 @@
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
@@ -35011,13 +35011,13 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>358.9284720888815</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -35026,10 +35026,10 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>288.7962490401609</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="P6" t="n">
         <v>424.2958575201044</v>
@@ -35099,16 +35099,16 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>369.8475292559658</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="P7" t="n">
         <v>351.0170646165068</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
         <v>424.2958575201043</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>424.2958575201043</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>236.2898988798406</v>
+        <v>407.1525905495951</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35254,13 +35254,13 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M9" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -35269,7 +35269,7 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>424.2958575201044</v>
@@ -35330,7 +35330,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>34.86753268700501</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
         <v>277.5337924960966</v>
@@ -35339,7 +35339,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201044</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
@@ -35406,28 +35406,28 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>4.93751717643429</v>
+        <v>4.937517176434295</v>
       </c>
       <c r="J11" t="n">
         <v>451.4295881567574</v>
       </c>
       <c r="K11" t="n">
-        <v>860.4308241280712</v>
+        <v>346.4483269170973</v>
       </c>
       <c r="L11" t="n">
-        <v>21.89979912815465</v>
+        <v>1107.818956959326</v>
       </c>
       <c r="M11" t="n">
-        <v>24.36774616961543</v>
+        <v>1193.10293325098</v>
       </c>
       <c r="N11" t="n">
-        <v>1075.778780422062</v>
+        <v>1161.864045249493</v>
       </c>
       <c r="O11" t="n">
-        <v>1013.462565165582</v>
+        <v>23.38209388244468</v>
       </c>
       <c r="P11" t="n">
-        <v>856.6327174106605</v>
+        <v>19.95607616480538</v>
       </c>
       <c r="Q11" t="n">
         <v>567.0051578243374</v>
@@ -35491,28 +35491,28 @@
         <v>334.8518195103205</v>
       </c>
       <c r="K12" t="n">
-        <v>249.4146482013296</v>
+        <v>11.98997046465382</v>
       </c>
       <c r="L12" t="n">
-        <v>980.3068927329786</v>
+        <v>16.12199494398476</v>
       </c>
       <c r="M12" t="n">
-        <v>18.81360767425508</v>
+        <v>18.81360767425519</v>
       </c>
       <c r="N12" t="n">
-        <v>19.31154788775575</v>
+        <v>19.31154788775586</v>
       </c>
       <c r="O12" t="n">
         <v>17.66629350017865</v>
       </c>
       <c r="P12" t="n">
-        <v>14.17875802184039</v>
+        <v>551.2310439248678</v>
       </c>
       <c r="Q12" t="n">
-        <v>9.478124247040341</v>
+        <v>555.679072360248</v>
       </c>
       <c r="R12" t="n">
-        <v>4.61009919052708</v>
+        <v>122.9664406999614</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35643,25 +35643,25 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>4.93751717643429</v>
+        <v>4.937517176434295</v>
       </c>
       <c r="J14" t="n">
         <v>451.4295881567574</v>
       </c>
       <c r="K14" t="n">
-        <v>17.65275144304292</v>
+        <v>860.4308241280714</v>
       </c>
       <c r="L14" t="n">
-        <v>21.89979912815465</v>
+        <v>1107.818956959326</v>
       </c>
       <c r="M14" t="n">
-        <v>1193.10293325098</v>
+        <v>979.5457982653097</v>
       </c>
       <c r="N14" t="n">
-        <v>1161.864045249493</v>
+        <v>24.76204177833415</v>
       </c>
       <c r="O14" t="n">
-        <v>601.4201859418149</v>
+        <v>23.38209388244468</v>
       </c>
       <c r="P14" t="n">
         <v>856.6327174106605</v>
@@ -35722,28 +35722,28 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>2.556462181805486</v>
+        <v>28.88340476812628</v>
       </c>
       <c r="J15" t="n">
-        <v>7.015127625257563</v>
+        <v>334.8518195103205</v>
       </c>
       <c r="K15" t="n">
-        <v>11.98997046465381</v>
+        <v>11.98997046465382</v>
       </c>
       <c r="L15" t="n">
         <v>16.12199494398476</v>
       </c>
       <c r="M15" t="n">
-        <v>18.81360767425511</v>
+        <v>18.81360767425519</v>
       </c>
       <c r="N15" t="n">
-        <v>910.5274682621671</v>
+        <v>19.31154788775586</v>
       </c>
       <c r="O15" t="n">
         <v>17.66629350017865</v>
       </c>
       <c r="P15" t="n">
-        <v>14.17875802184039</v>
+        <v>551.2310439248678</v>
       </c>
       <c r="Q15" t="n">
         <v>555.679072360248</v>
@@ -35880,22 +35880,22 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>4.93751717643429</v>
+        <v>4.937517176434295</v>
       </c>
       <c r="J17" t="n">
-        <v>11.77838870936563</v>
+        <v>451.4295881567574</v>
       </c>
       <c r="K17" t="n">
-        <v>860.4308241280712</v>
+        <v>17.65275144304303</v>
       </c>
       <c r="L17" t="n">
         <v>1107.818956959326</v>
       </c>
       <c r="M17" t="n">
-        <v>24.3677461696152</v>
+        <v>24.36774616961543</v>
       </c>
       <c r="N17" t="n">
-        <v>429.5108220382826</v>
+        <v>832.637695275919</v>
       </c>
       <c r="O17" t="n">
         <v>1013.462565165582</v>
@@ -35965,22 +35965,22 @@
         <v>334.8518195103205</v>
       </c>
       <c r="K18" t="n">
-        <v>549.0422563676814</v>
+        <v>11.98997046465382</v>
       </c>
       <c r="L18" t="n">
         <v>16.12199494398476</v>
       </c>
       <c r="M18" t="n">
-        <v>18.81360767425508</v>
+        <v>18.81360767425519</v>
       </c>
       <c r="N18" t="n">
-        <v>19.31154788775575</v>
+        <v>19.31154788775586</v>
       </c>
       <c r="O18" t="n">
         <v>17.66629350017865</v>
       </c>
       <c r="P18" t="n">
-        <v>14.17875802184039</v>
+        <v>551.2310439248678</v>
       </c>
       <c r="Q18" t="n">
         <v>555.679072360248</v>
@@ -36117,25 +36117,25 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>4.93751717643429</v>
+        <v>4.937517176434295</v>
       </c>
       <c r="J20" t="n">
         <v>451.4295881567574</v>
       </c>
       <c r="K20" t="n">
-        <v>860.4308241280712</v>
+        <v>860.4308241280714</v>
       </c>
       <c r="L20" t="n">
-        <v>1107.818956959326</v>
+        <v>21.89979912815465</v>
       </c>
       <c r="M20" t="n">
-        <v>24.36774616961566</v>
+        <v>24.36774616961543</v>
       </c>
       <c r="N20" t="n">
-        <v>24.76204177833415</v>
+        <v>1075.778780422062</v>
       </c>
       <c r="O20" t="n">
-        <v>978.5601459781387</v>
+        <v>1013.462565165582</v>
       </c>
       <c r="P20" t="n">
         <v>856.6327174106605</v>
@@ -36196,34 +36196,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>2.556462181805486</v>
+        <v>28.88340476812628</v>
       </c>
       <c r="J21" t="n">
-        <v>7.015127625257563</v>
+        <v>334.8518195103205</v>
       </c>
       <c r="K21" t="n">
-        <v>11.98997046465381</v>
+        <v>11.98997046465382</v>
       </c>
       <c r="L21" t="n">
-        <v>547.8531748215412</v>
+        <v>16.12199494398476</v>
       </c>
       <c r="M21" t="n">
-        <v>18.81360767425508</v>
+        <v>18.81360767425519</v>
       </c>
       <c r="N21" t="n">
         <v>19.31154788775586</v>
       </c>
       <c r="O21" t="n">
-        <v>1041.708323619675</v>
+        <v>17.66629350017865</v>
       </c>
       <c r="P21" t="n">
-        <v>14.17875802184039</v>
+        <v>551.2310439248678</v>
       </c>
       <c r="Q21" t="n">
-        <v>9.478124247040341</v>
+        <v>555.679072360248</v>
       </c>
       <c r="R21" t="n">
-        <v>4.61009919052708</v>
+        <v>122.9664406999614</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36354,22 +36354,22 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>4.93751717643429</v>
+        <v>4.937517176434295</v>
       </c>
       <c r="J23" t="n">
-        <v>11.77838870936563</v>
+        <v>451.4295881567574</v>
       </c>
       <c r="K23" t="n">
-        <v>298.9402925866148</v>
+        <v>860.4308241280714</v>
       </c>
       <c r="L23" t="n">
-        <v>1107.818956959326</v>
+        <v>21.89979912815465</v>
       </c>
       <c r="M23" t="n">
         <v>24.36774616961543</v>
       </c>
       <c r="N23" t="n">
-        <v>1161.864045249493</v>
+        <v>1075.778780422062</v>
       </c>
       <c r="O23" t="n">
         <v>1013.462565165582</v>
@@ -36381,7 +36381,7 @@
         <v>567.0051578243374</v>
       </c>
       <c r="R23" t="n">
-        <v>8.717350296937184</v>
+        <v>179.5800419666912</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36439,22 +36439,22 @@
         <v>334.8518195103205</v>
       </c>
       <c r="K24" t="n">
-        <v>549.0422563676814</v>
+        <v>11.98997046465382</v>
       </c>
       <c r="L24" t="n">
         <v>16.12199494398476</v>
       </c>
       <c r="M24" t="n">
-        <v>18.81360767425508</v>
+        <v>18.81360767425519</v>
       </c>
       <c r="N24" t="n">
-        <v>19.31154788775575</v>
+        <v>19.31154788775586</v>
       </c>
       <c r="O24" t="n">
         <v>17.66629350017865</v>
       </c>
       <c r="P24" t="n">
-        <v>14.17875802184039</v>
+        <v>551.2310439248678</v>
       </c>
       <c r="Q24" t="n">
         <v>555.679072360248</v>
@@ -36591,19 +36591,19 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>4.93751717643429</v>
+        <v>4.937517176434295</v>
       </c>
       <c r="J26" t="n">
         <v>451.4295881567574</v>
       </c>
       <c r="K26" t="n">
-        <v>860.4308241280712</v>
+        <v>860.4308241280714</v>
       </c>
       <c r="L26" t="n">
-        <v>1072.916537771883</v>
+        <v>1107.818956959326</v>
       </c>
       <c r="M26" t="n">
-        <v>24.3677461696152</v>
+        <v>541.4843026979238</v>
       </c>
       <c r="N26" t="n">
         <v>24.76204177833415</v>
@@ -36612,10 +36612,10 @@
         <v>1013.462565165582</v>
       </c>
       <c r="P26" t="n">
-        <v>856.6327174106605</v>
+        <v>856.63271741066</v>
       </c>
       <c r="Q26" t="n">
-        <v>567.0051578243374</v>
+        <v>14.98618210858513</v>
       </c>
       <c r="R26" t="n">
         <v>179.5800419666912</v>
@@ -36670,28 +36670,28 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>28.88340476812628</v>
+        <v>28.8834047681263</v>
       </c>
       <c r="J27" t="n">
         <v>334.8518195103205</v>
       </c>
       <c r="K27" t="n">
-        <v>549.0422563676814</v>
+        <v>11.98997046465382</v>
       </c>
       <c r="L27" t="n">
         <v>16.12199494398476</v>
       </c>
       <c r="M27" t="n">
-        <v>18.81360767425508</v>
+        <v>18.81360767425519</v>
       </c>
       <c r="N27" t="n">
-        <v>19.31154788775575</v>
+        <v>19.31154788775586</v>
       </c>
       <c r="O27" t="n">
         <v>17.66629350017865</v>
       </c>
       <c r="P27" t="n">
-        <v>14.17875802184039</v>
+        <v>551.2310439248678</v>
       </c>
       <c r="Q27" t="n">
         <v>555.679072360248</v>
@@ -36752,7 +36752,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>91.8552930694817</v>
+        <v>91.85529306948172</v>
       </c>
       <c r="K28" t="n">
         <v>284.7660952807854</v>
@@ -36828,31 +36828,31 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>4.93751717643429</v>
+        <v>4.937517176434295</v>
       </c>
       <c r="J29" t="n">
         <v>451.4295881567574</v>
       </c>
       <c r="K29" t="n">
-        <v>17.65275144304292</v>
+        <v>860.4308241280714</v>
       </c>
       <c r="L29" t="n">
-        <v>1107.818956959326</v>
+        <v>1072.916537771882</v>
       </c>
       <c r="M29" t="n">
-        <v>1193.10293325098</v>
+        <v>24.36774616961566</v>
       </c>
       <c r="N29" t="n">
-        <v>1161.864045249493</v>
+        <v>24.76204177833415</v>
       </c>
       <c r="O29" t="n">
-        <v>904.1966450722512</v>
+        <v>1013.462565165582</v>
       </c>
       <c r="P29" t="n">
-        <v>19.95607616480538</v>
+        <v>856.6327174106605</v>
       </c>
       <c r="Q29" t="n">
-        <v>14.98618210858513</v>
+        <v>567.0051578243374</v>
       </c>
       <c r="R29" t="n">
         <v>179.5800419666912</v>
@@ -36913,22 +36913,22 @@
         <v>334.8518195103205</v>
       </c>
       <c r="K30" t="n">
-        <v>549.0422563676814</v>
+        <v>11.98997046465382</v>
       </c>
       <c r="L30" t="n">
         <v>16.12199494398476</v>
       </c>
       <c r="M30" t="n">
-        <v>18.81360767425508</v>
+        <v>18.81360767425519</v>
       </c>
       <c r="N30" t="n">
-        <v>19.31154788775575</v>
+        <v>19.31154788775586</v>
       </c>
       <c r="O30" t="n">
         <v>17.66629350017865</v>
       </c>
       <c r="P30" t="n">
-        <v>14.17875802184039</v>
+        <v>551.2310439248678</v>
       </c>
       <c r="Q30" t="n">
         <v>555.679072360248</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>4.93751717643429</v>
+        <v>4.937517176434295</v>
       </c>
       <c r="J32" t="n">
         <v>451.4295881567574</v>
       </c>
       <c r="K32" t="n">
-        <v>17.65275144304292</v>
+        <v>860.4308241280714</v>
       </c>
       <c r="L32" t="n">
         <v>1107.818956959326</v>
       </c>
       <c r="M32" t="n">
-        <v>1193.10293325098</v>
+        <v>24.36774616961566</v>
       </c>
       <c r="N32" t="n">
-        <v>1161.864045249493</v>
+        <v>24.76204177833415</v>
       </c>
       <c r="O32" t="n">
-        <v>1013.462565165582</v>
+        <v>978.5601459781387</v>
       </c>
       <c r="P32" t="n">
-        <v>19.95607616480538</v>
+        <v>856.6327174106605</v>
       </c>
       <c r="Q32" t="n">
-        <v>14.98618210858604</v>
+        <v>567.0051578243374</v>
       </c>
       <c r="R32" t="n">
-        <v>70.314121873359</v>
+        <v>179.5800419666912</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,34 +37144,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>2.556462181805486</v>
+        <v>28.88340476812628</v>
       </c>
       <c r="J33" t="n">
-        <v>7.015127625257563</v>
+        <v>334.8518195103205</v>
       </c>
       <c r="K33" t="n">
-        <v>11.98997046465381</v>
+        <v>11.98997046465382</v>
       </c>
       <c r="L33" t="n">
-        <v>743.8920064772014</v>
+        <v>16.12199494398476</v>
       </c>
       <c r="M33" t="n">
-        <v>18.81360767425508</v>
+        <v>18.81360767425519</v>
       </c>
       <c r="N33" t="n">
         <v>19.31154788775586</v>
       </c>
       <c r="O33" t="n">
-        <v>17.66629350017854</v>
+        <v>17.66629350017865</v>
       </c>
       <c r="P33" t="n">
-        <v>842.181956485677</v>
+        <v>551.2310439248678</v>
       </c>
       <c r="Q33" t="n">
-        <v>9.478124247040341</v>
+        <v>555.679072360248</v>
       </c>
       <c r="R33" t="n">
-        <v>4.61009919052708</v>
+        <v>122.9664406999614</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37302,22 +37302,22 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>4.93751717643429</v>
+        <v>4.937517176434295</v>
       </c>
       <c r="J35" t="n">
         <v>451.4295881567574</v>
       </c>
       <c r="K35" t="n">
-        <v>860.4308241280712</v>
+        <v>860.4308241280714</v>
       </c>
       <c r="L35" t="n">
-        <v>21.89979912815465</v>
+        <v>1072.916537771882</v>
       </c>
       <c r="M35" t="n">
-        <v>24.36774616961543</v>
+        <v>24.36774616961566</v>
       </c>
       <c r="N35" t="n">
-        <v>1075.778780422062</v>
+        <v>24.76204177833415</v>
       </c>
       <c r="O35" t="n">
         <v>1013.462565165582</v>
@@ -37381,34 +37381,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>2.556462181805486</v>
+        <v>28.88340476812628</v>
       </c>
       <c r="J36" t="n">
-        <v>7.015127625257563</v>
+        <v>334.8518195103205</v>
       </c>
       <c r="K36" t="n">
-        <v>11.98997046465381</v>
+        <v>11.98997046465382</v>
       </c>
       <c r="L36" t="n">
         <v>16.12199494398476</v>
       </c>
       <c r="M36" t="n">
-        <v>328.2966443780692</v>
+        <v>18.81360767425519</v>
       </c>
       <c r="N36" t="n">
-        <v>1265.601721180995</v>
+        <v>19.31154788775586</v>
       </c>
       <c r="O36" t="n">
         <v>17.66629350017865</v>
       </c>
       <c r="P36" t="n">
-        <v>14.17875802184039</v>
+        <v>551.2310439248678</v>
       </c>
       <c r="Q36" t="n">
-        <v>9.478124247040341</v>
+        <v>555.679072360248</v>
       </c>
       <c r="R36" t="n">
-        <v>4.61009919052708</v>
+        <v>122.9664406999614</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37539,31 +37539,31 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>4.93751717643429</v>
+        <v>4.937517176434295</v>
       </c>
       <c r="J38" t="n">
-        <v>11.77838870936563</v>
+        <v>451.4295881567574</v>
       </c>
       <c r="K38" t="n">
-        <v>860.4308241280712</v>
+        <v>860.4308241280714</v>
       </c>
       <c r="L38" t="n">
-        <v>1107.818956959326</v>
+        <v>894.2618219736555</v>
       </c>
       <c r="M38" t="n">
         <v>1193.10293325098</v>
       </c>
       <c r="N38" t="n">
-        <v>1161.864045249493</v>
+        <v>24.76204177833415</v>
       </c>
       <c r="O38" t="n">
         <v>23.38209388244468</v>
       </c>
       <c r="P38" t="n">
-        <v>19.95607616480538</v>
+        <v>856.6327174106605</v>
       </c>
       <c r="Q38" t="n">
-        <v>492.673860060755</v>
+        <v>567.0051578243374</v>
       </c>
       <c r="R38" t="n">
         <v>179.5800419666912</v>
@@ -37618,28 +37618,28 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>2.556462181805486</v>
+        <v>28.88340476812628</v>
       </c>
       <c r="J39" t="n">
-        <v>7.015127625257563</v>
+        <v>334.8518195103205</v>
       </c>
       <c r="K39" t="n">
-        <v>11.98997046465381</v>
+        <v>11.98997046465382</v>
       </c>
       <c r="L39" t="n">
         <v>16.12199494398476</v>
       </c>
       <c r="M39" t="n">
-        <v>18.81360767425511</v>
+        <v>18.81360767425519</v>
       </c>
       <c r="N39" t="n">
-        <v>82.52426979833049</v>
+        <v>19.31154788775586</v>
       </c>
       <c r="O39" t="n">
-        <v>17.6662935001786</v>
+        <v>17.66629350017865</v>
       </c>
       <c r="P39" t="n">
-        <v>842.181956485677</v>
+        <v>551.2310439248678</v>
       </c>
       <c r="Q39" t="n">
         <v>555.679072360248</v>
@@ -37776,28 +37776,28 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>4.93751717643429</v>
+        <v>4.937517176434295</v>
       </c>
       <c r="J41" t="n">
         <v>451.4295881567574</v>
       </c>
       <c r="K41" t="n">
-        <v>17.65275144304292</v>
+        <v>860.4308241280714</v>
       </c>
       <c r="L41" t="n">
         <v>21.89979912815465</v>
       </c>
       <c r="M41" t="n">
-        <v>1193.10293325098</v>
+        <v>24.36774616961543</v>
       </c>
       <c r="N41" t="n">
-        <v>1161.864045249493</v>
+        <v>1075.778780422062</v>
       </c>
       <c r="O41" t="n">
         <v>1013.462565165582</v>
       </c>
       <c r="P41" t="n">
-        <v>444.590338186893</v>
+        <v>856.6327174106605</v>
       </c>
       <c r="Q41" t="n">
         <v>567.0051578243374</v>
@@ -37861,22 +37861,22 @@
         <v>334.8518195103205</v>
       </c>
       <c r="K42" t="n">
-        <v>549.0422563676814</v>
+        <v>11.98997046465382</v>
       </c>
       <c r="L42" t="n">
         <v>16.12199494398476</v>
       </c>
       <c r="M42" t="n">
-        <v>18.81360767425508</v>
+        <v>18.81360767425519</v>
       </c>
       <c r="N42" t="n">
-        <v>19.31154788775575</v>
+        <v>19.31154788775586</v>
       </c>
       <c r="O42" t="n">
         <v>17.66629350017865</v>
       </c>
       <c r="P42" t="n">
-        <v>14.17875802184039</v>
+        <v>551.2310439248678</v>
       </c>
       <c r="Q42" t="n">
         <v>555.679072360248</v>
@@ -38013,13 +38013,13 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>4.93751717643429</v>
+        <v>4.937517176434295</v>
       </c>
       <c r="J44" t="n">
         <v>451.4295881567574</v>
       </c>
       <c r="K44" t="n">
-        <v>860.4308241280712</v>
+        <v>860.4308241280714</v>
       </c>
       <c r="L44" t="n">
         <v>1107.818956959326</v>
@@ -38028,16 +38028,16 @@
         <v>1193.10293325098</v>
       </c>
       <c r="N44" t="n">
-        <v>1161.864045249493</v>
+        <v>24.76204177833415</v>
       </c>
       <c r="O44" t="n">
-        <v>61.41857238722332</v>
+        <v>23.38209388244468</v>
       </c>
       <c r="P44" t="n">
-        <v>19.95607616480538</v>
+        <v>643.0755824249904</v>
       </c>
       <c r="Q44" t="n">
-        <v>14.98618210858513</v>
+        <v>567.0051578243374</v>
       </c>
       <c r="R44" t="n">
         <v>179.5800419666912</v>
